--- a/t2dm-poltava/t2dm_poltava_progbook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_progbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372CA836-A05E-8847-9392-127B9DA1BB96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9D75F7-553A-3144-BF9B-71A5E8CA115B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25340" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="153">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -791,7 +791,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _U_S_$_-;\-* #,##0.00\ _U_S_$_-;_-* &quot;-&quot;??\ _U_S_$_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _k_r_._-;\-* #,##0.000\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
@@ -924,7 +925,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1015,6 +1016,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1085,7 +1092,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1295,6 +1302,65 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1318,30 +1384,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4175,31 +4217,31 @@
                 <c:formatCode>_-* #.##0\ _k_r_._-;\-* #.##0\ _k_r_._-;_-* "-"??\ _k_r_._-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>340619.7</c:v>
+                  <c:v>526335.20000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127743.20000000001</c:v>
+                  <c:v>197375.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42575.3</c:v>
+                  <c:v>65791.900000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216400</c:v>
+                  <c:v>334400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1169414.24</c:v>
+                  <c:v>1807196.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>171809.6</c:v>
+                  <c:v>265430.39999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>459710</c:v>
+                  <c:v>710711.65999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23669.780000000002</c:v>
+                  <c:v>37868.410000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8494.1999999999989</c:v>
+                  <c:v>16988.399999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4328,7 +4370,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#ignore - summary'!$D$2</c:f>
+              <c:f>'#ignore - summary'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4658,11 +4700,34 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-EA00-3E48-9279-254E1B268BEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'#ignore - summary'!$B$3:$B$15</c:f>
+              <c:f>'#ignore - summary'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Blood glucose test (PHC level)</c:v>
                 </c:pt>
@@ -4672,34 +4737,34 @@
                 <c:pt idx="2">
                   <c:v>Blood glucose test (outreach/community-based)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Confirmatory test (oral glucose tolerance test)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Clinical exam at diagnosis</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Provision of diary and glucometer at initiation</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>IEC through residential school/courses</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>IEC through PHC clinic staff</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Annual co-payments for oral medication</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>Annual co-payments for insulin</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>Provision of glucometer strips (oral treatment)</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>Provision of glucometer strips (insulin)</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>Annual patient monitoring costs</c:v>
                 </c:pt>
               </c:strCache>
@@ -4707,48 +4772,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#ignore - summary'!$D$3:$D$15</c:f>
+              <c:f>'#ignore - summary'!$E$4:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>340619.7</c:v>
+                  <c:v>526335.20000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127743.20000000001</c:v>
+                  <c:v>197375.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42575.3</c:v>
+                  <c:v>65791.900000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216400</c:v>
+                  <c:v>334400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>654560</c:v>
+                  <c:v>334400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1100000</c:v>
+                  <c:v>2782463.4826993197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25304.219290702946</c:v>
+                  <c:v>1011295.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21070.851700680272</c:v>
+                  <c:v>1699500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13042930</c:v>
+                  <c:v>39092.745970068027</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213394215.36000001</c:v>
+                  <c:v>32575.5367292517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26013600</c:v>
+                  <c:v>471079121.474253</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>189957888</c:v>
+                  <c:v>13818358</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62750738.644571707</c:v>
+                  <c:v>195764610.60000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27560160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>174264480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59671512.874252975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6018,13 +6092,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27970,8 +28044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -28026,7 +28100,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7">
         <f>H3*H6</f>
-        <v>340619.7</v>
+        <v>526335.20000000007</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -28099,7 +28173,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6">
         <f>ROUND('#ignore - misc calcs'!$B$2*2/3*'#ignore - misc calcs'!$B$6,0)</f>
-        <v>19689</v>
+        <v>30424</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -28147,7 +28221,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7">
         <f>H10*H13</f>
-        <v>127743.20000000001</v>
+        <v>197375.7</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -28220,7 +28294,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6">
         <f>ROUND('#ignore - misc calcs'!$B$2*1/4*'#ignore - misc calcs'!$B$6,0)</f>
-        <v>7384</v>
+        <v>11409</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -28268,7 +28342,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="7">
         <f>H17*H20</f>
-        <v>42575.3</v>
+        <v>65791.900000000009</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -28341,7 +28415,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6">
         <f>ROUND('#ignore - misc calcs'!$B$2*1/12*'#ignore - misc calcs'!$B$6,0)</f>
-        <v>2461</v>
+        <v>3803</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -28389,7 +28463,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="7">
         <f>H24*H27</f>
-        <v>216400</v>
+        <v>334400</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -28462,7 +28536,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6">
         <f>'#ignore - misc calcs'!$B$3</f>
-        <v>2164</v>
+        <v>3344</v>
       </c>
       <c r="I27" s="6"/>
     </row>
@@ -28510,7 +28584,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="7">
         <f>H31*H34</f>
-        <v>1169414.24</v>
+        <v>1807196.8</v>
       </c>
       <c r="I30" s="6"/>
     </row>
@@ -28584,7 +28658,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6">
         <f>ROUND('#ignore - misc calcs'!$B$4*2/3,0)</f>
-        <v>1333</v>
+        <v>2060</v>
       </c>
       <c r="I34" s="6"/>
     </row>
@@ -28632,7 +28706,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="7">
         <f>H38*H41</f>
-        <v>171809.6</v>
+        <v>265430.39999999997</v>
       </c>
       <c r="I37" s="6"/>
     </row>
@@ -28706,7 +28780,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6">
         <f>ROUND('#ignore - misc calcs'!$B$4*1/12,0)</f>
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="I41" s="6"/>
     </row>
@@ -28754,7 +28828,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="7">
         <f>H45*H48</f>
-        <v>459710</v>
+        <v>710711.65999999992</v>
       </c>
       <c r="I44" s="6"/>
     </row>
@@ -28828,7 +28902,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6">
         <f>ROUND('#ignore - misc calcs'!$B$4*1/4,0)</f>
-        <v>500</v>
+        <v>773</v>
       </c>
       <c r="I48" s="6"/>
     </row>
@@ -28876,7 +28950,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="7">
         <f>H52*H55</f>
-        <v>23669.780000000002</v>
+        <v>37868.410000000003</v>
       </c>
       <c r="I51" s="6"/>
     </row>
@@ -28948,8 +29022,8 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6">
-        <f>ROUND(5%*'#ignore - misc calcs'!$B$5,0)</f>
-        <v>1462</v>
+        <f>ROUND(8%*'#ignore - misc calcs'!$B$5,0)</f>
+        <v>2339</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -28997,7 +29071,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="7">
         <f>H59*H62</f>
-        <v>8494.1999999999989</v>
+        <v>16988.399999999998</v>
       </c>
       <c r="I58" s="6"/>
     </row>
@@ -29069,8 +29143,8 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6">
-        <f>ROUND(2%*'#ignore - misc calcs'!$B$5,0)</f>
-        <v>585</v>
+        <f>ROUND(4%*'#ignore - misc calcs'!$B$5,0)</f>
+        <v>1170</v>
       </c>
       <c r="I62" s="6"/>
     </row>
@@ -29449,8 +29523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -29529,15 +29603,15 @@
       <c r="E2" s="5"/>
       <c r="G2" s="17">
         <f>'#ignore - misc calcs'!$B$23</f>
-        <v>6.3</v>
+        <v>6.85</v>
       </c>
       <c r="H2" s="17">
         <f>'#ignore - misc calcs'!$B$24</f>
-        <v>6.3</v>
+        <v>6.85</v>
       </c>
       <c r="I2" s="17">
         <f>'#ignore - misc calcs'!$B$25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -29765,7 +29839,7 @@
         <v>Adults</v>
       </c>
       <c r="B11" s="6">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>38</v>
@@ -29778,7 +29852,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="11"/>
       <c r="L11" s="10">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M11" s="10">
         <v>0.25</v>
@@ -31533,10 +31607,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98FCFE-F49E-A043-ADE3-386E72782E8F}">
-  <dimension ref="B2:M32"/>
+  <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -31545,31 +31619,48 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="1" spans="2:6">
+      <c r="B1" s="110">
+        <f>B2*8%</f>
+        <v>3650.88</v>
+      </c>
+      <c r="C1" s="110">
+        <f>B1*92%</f>
+        <v>3358.8096</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
       <c r="B2" s="13">
-        <v>29534</v>
+        <v>45636</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
       </c>
+      <c r="F2">
+        <v>3227</v>
+      </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:6">
       <c r="B3" s="13">
-        <v>2164</v>
+        <v>3344</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
       </c>
+      <c r="F3">
+        <f>F2*96%</f>
+        <v>3097.92</v>
+      </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:6">
       <c r="B4" s="13">
-        <v>2000</v>
+        <v>3090</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:6">
       <c r="B5" s="13">
         <v>29239</v>
       </c>
@@ -31577,7 +31668,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:6">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -31585,90 +31676,90 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:6">
       <c r="B8" s="13">
         <f>'Spending data'!H2</f>
-        <v>340619.7</v>
+        <v>526335.20000000007</v>
       </c>
       <c r="C8" t="str">
         <f>'Program targeting'!A3</f>
         <v>Blood glucose test (PHC level)</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:6">
       <c r="B9" s="13">
         <f>'Spending data'!H9</f>
-        <v>127743.20000000001</v>
+        <v>197375.7</v>
       </c>
       <c r="C9" t="str">
         <f>'Program targeting'!A4</f>
         <v>Blood glucose test (Feldsher post family nurse)</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:6">
       <c r="B10" s="13">
         <f>'Spending data'!H16</f>
-        <v>42575.3</v>
+        <v>65791.900000000009</v>
       </c>
       <c r="C10" t="str">
         <f>'Program targeting'!A5</f>
         <v>Blood glucose test (outreach/community-based)</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:6">
       <c r="B11" s="13">
         <f>'Spending data'!H23</f>
-        <v>216400</v>
+        <v>334400</v>
       </c>
       <c r="C11" t="str">
         <f>'Program targeting'!A6</f>
         <v>Confirmatory test</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:6">
       <c r="B12" s="13">
         <f>'Spending data'!H30</f>
-        <v>1169414.24</v>
+        <v>1807196.8</v>
       </c>
       <c r="C12" t="str">
         <f>'Program targeting'!A7</f>
         <v>Initiation</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:6">
       <c r="B13" s="13">
         <f>'Spending data'!H37</f>
-        <v>171809.6</v>
+        <v>265430.39999999997</v>
       </c>
       <c r="C13" t="str">
         <f>'Program targeting'!A8</f>
         <v>Initiation counselling - patient schools</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:6">
       <c r="B14" s="13">
         <f>'Spending data'!H44</f>
-        <v>459710</v>
+        <v>710711.65999999992</v>
       </c>
       <c r="C14" t="str">
         <f>'Program targeting'!A9</f>
         <v>Initiation counselling - PHC</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:6">
       <c r="B15" s="13">
         <f>'Spending data'!H51</f>
-        <v>23669.780000000002</v>
+        <v>37868.410000000003</v>
       </c>
       <c r="C15" t="str">
         <f>'Program targeting'!A10</f>
         <v>Advanced adherence counselling - PHC</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:6">
       <c r="B16" s="13">
         <f>'Spending data'!H58</f>
-        <v>8494.1999999999989</v>
+        <v>16988.399999999998</v>
       </c>
       <c r="C16" t="str">
         <f>'Program targeting'!A11</f>
@@ -31687,7 +31778,7 @@
     <row r="20" spans="2:13">
       <c r="B20" s="14">
         <f>'Spending data'!H6/$B$19</f>
-        <v>1.6470046966034109E-2</v>
+        <v>2.5449982675332508E-2</v>
       </c>
       <c r="C20" t="s">
         <v>56</v>
@@ -31696,7 +31787,7 @@
     <row r="21" spans="2:13">
       <c r="B21" s="14">
         <f>'Spending data'!H13/$B$19</f>
-        <v>6.1767904310628206E-3</v>
+        <v>9.5437435032496905E-3</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
@@ -31705,7 +31796,7 @@
     <row r="22" spans="2:13">
       <c r="B22" s="14">
         <f>'Spending data'!H20/$B$19</f>
-        <v>2.058651306994258E-3</v>
+        <v>3.1812478344165635E-3</v>
       </c>
       <c r="C22" t="s">
         <v>58</v>
@@ -31713,7 +31804,7 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23">
-        <v>6.3</v>
+        <v>6.85</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -31721,7 +31812,8 @@
     </row>
     <row r="24" spans="2:13">
       <c r="B24">
-        <v>6.3</v>
+        <f>B23</f>
+        <v>6.85</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -31729,7 +31821,7 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -31738,7 +31830,7 @@
     <row r="26" spans="2:13">
       <c r="B26" s="15">
         <f>B20*'Program effects'!G2</f>
-        <v>0.10376129588601489</v>
+        <v>0.17433238132602766</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -31747,7 +31839,7 @@
     <row r="27" spans="2:13">
       <c r="B27" s="15">
         <f>B21*'Program effects'!H2</f>
-        <v>3.8913779715695769E-2</v>
+        <v>6.5374642997260382E-2</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -31756,7 +31848,7 @@
     <row r="28" spans="2:13">
       <c r="B28" s="15">
         <f>B22*'Program effects'!I2</f>
-        <v>1.4410559148959806E-2</v>
+        <v>2.5449982675332508E-2</v>
       </c>
       <c r="C28" t="s">
         <v>64</v>
@@ -31765,7 +31857,7 @@
     <row r="29" spans="2:13">
       <c r="B29" s="16">
         <f>SUM(B26:B28)</f>
-        <v>0.15708563475067047</v>
+        <v>0.26515700699862055</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
@@ -31776,8 +31868,7 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="13">
-        <f>11117+1962</f>
-        <v>13079</v>
+        <v>13733</v>
       </c>
       <c r="C30" t="s">
         <v>59</v>
@@ -31786,7 +31877,7 @@
     <row r="31" spans="2:13">
       <c r="B31" s="18">
         <f>B30*B29</f>
-        <v>2054.5230169040192</v>
+        <v>3641.4011771120558</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -31794,7 +31885,7 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="13">
-        <v>2362.7199999999998</v>
+        <v>3650.88</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
@@ -31808,20 +31899,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7089B648-EE74-8145-9F25-536CEBA19B8C}">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D20" sqref="D20:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
-    <col min="6" max="8" width="14.83203125" style="12" customWidth="1"/>
+    <col min="3" max="8" width="14.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="64">
@@ -31829,563 +31917,603 @@
         <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100">
+        <f>SUM(E4:E6)</f>
+        <v>789502.80000000016</v>
+      </c>
+      <c r="F3" s="101">
+        <f>SUM(F4:F6)</f>
+        <v>1.661969996926708E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C4" s="90">
         <f>'Spending data'!H3</f>
         <v>17.3</v>
       </c>
-      <c r="D3" s="100">
+      <c r="D4" s="93">
+        <f>E4/C4</f>
+        <v>30424.000000000004</v>
+      </c>
+      <c r="E4" s="92">
         <f>'Spending data'!H2</f>
-        <v>340619.7</v>
-      </c>
-      <c r="E3" s="105">
-        <f>D3/$D$27</f>
-        <v>6.7088124944234256E-4</v>
-      </c>
-      <c r="F3" s="101">
-        <f>D3/C3</f>
-        <v>19689</v>
-      </c>
-      <c r="G3" s="19" t="s">
+        <v>526335.20000000007</v>
+      </c>
+      <c r="F4" s="97">
+        <f>E4/$E$32</f>
+        <v>1.1079799979511386E-3</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C5" s="90">
         <f>'Spending data'!H10</f>
         <v>17.3</v>
       </c>
-      <c r="D4" s="100">
+      <c r="D5" s="93">
+        <f>E5/C5</f>
+        <v>11409</v>
+      </c>
+      <c r="E5" s="92">
         <f>'Spending data'!H9</f>
-        <v>127743.20000000001</v>
-      </c>
-      <c r="E4" s="105">
-        <f t="shared" ref="E4:E15" si="0">D4/$D$27</f>
-        <v>2.5160176473575389E-4</v>
-      </c>
-      <c r="F4" s="101">
-        <f>D4/C4</f>
-        <v>7384</v>
-      </c>
-      <c r="G4" s="19" t="s">
+        <v>197375.7</v>
+      </c>
+      <c r="F5" s="97">
+        <f>E5/$E$32</f>
+        <v>4.1549249923167699E-4</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C6" s="90">
         <f>'Spending data'!H17</f>
         <v>17.3</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D6" s="93">
+        <f>E6/C6</f>
+        <v>3803.0000000000005</v>
+      </c>
+      <c r="E6" s="92">
         <f>'Spending data'!H16</f>
-        <v>42575.3</v>
-      </c>
-      <c r="E5" s="105">
-        <f t="shared" si="0"/>
-        <v>8.3855896941317743E-5</v>
-      </c>
-      <c r="F5" s="101">
-        <f>D5/C5</f>
-        <v>2461</v>
-      </c>
-      <c r="G5" s="19" t="s">
+        <v>65791.900000000009</v>
+      </c>
+      <c r="F6" s="97">
+        <f>E6/$E$32</f>
+        <v>1.3849749974389233E-4</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="100">
+        <f>SUM(E8:E8)</f>
+        <v>334400</v>
+      </c>
+      <c r="F7" s="101">
+        <f>SUM(F8:F8)</f>
+        <v>7.0394021018328377E-4</v>
+      </c>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C8" s="90">
         <f>'Spending data'!H24</f>
         <v>100</v>
       </c>
-      <c r="D6" s="100">
-        <f>C6*2164</f>
-        <v>216400</v>
-      </c>
-      <c r="E6" s="105">
-        <f t="shared" si="0"/>
-        <v>4.2621933604933282E-4</v>
-      </c>
-      <c r="F6" s="101">
-        <f>D6/C6</f>
-        <v>2164</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="D8" s="93">
+        <f>E8/C8</f>
+        <v>3344</v>
+      </c>
+      <c r="E8" s="92">
+        <f>'Spending data'!H23</f>
+        <v>334400</v>
+      </c>
+      <c r="F8" s="97">
+        <f>E8/$E$32</f>
+        <v>7.0394021018328377E-4</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="98">
-        <v>327.27999999999997</v>
-      </c>
-      <c r="D7" s="100">
-        <f>C7*2000</f>
-        <v>654560</v>
-      </c>
-      <c r="E7" s="105">
-        <f t="shared" si="0"/>
-        <v>1.2892150120353571E-3</v>
-      </c>
-      <c r="F7" s="101">
-        <f>D7/C7</f>
-        <v>2000.0000000000002</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="98">
-        <v>550</v>
-      </c>
-      <c r="D8" s="100">
-        <f>C8*2000</f>
-        <v>1100000</v>
-      </c>
-      <c r="E8" s="105">
-        <f t="shared" si="0"/>
-        <v>2.1665493052415255E-3</v>
-      </c>
-      <c r="F8" s="101">
-        <f>D8/C8</f>
-        <v>2000</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="98">
-        <v>151.52227120181405</v>
-      </c>
-      <c r="D9" s="100">
-        <f>C9*F9</f>
-        <v>25304.219290702946</v>
-      </c>
-      <c r="E9" s="105">
-        <f t="shared" si="0"/>
-        <v>4.983894429450152E-5</v>
+      <c r="B9" s="98"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="100">
+        <f>SUM(E10:E13)</f>
+        <v>2782463.4826993197</v>
       </c>
       <c r="F9" s="101">
-        <v>167</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>78</v>
-      </c>
+        <f>SUM(F10:F13)</f>
+        <v>5.8573203613596619E-3</v>
+      </c>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
       <c r="B10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="98">
-        <v>42.141703401360544</v>
-      </c>
-      <c r="D10" s="100">
-        <f>C10*F10</f>
-        <v>21070.851700680272</v>
-      </c>
-      <c r="E10" s="105">
-        <f t="shared" si="0"/>
-        <v>4.1500944648141874E-5</v>
-      </c>
-      <c r="F10" s="101">
-        <v>500</v>
+        <v>140</v>
+      </c>
+      <c r="C10" s="90">
+        <v>327.27999999999997</v>
+      </c>
+      <c r="D10" s="93">
+        <f>'#ignore - misc calcs'!$B$4</f>
+        <v>3090</v>
+      </c>
+      <c r="E10" s="92">
+        <f>C10*D10</f>
+        <v>1011295.2</v>
+      </c>
+      <c r="F10" s="97">
+        <f t="shared" ref="F10:F28" si="0">E10/$E$32</f>
+        <v>2.1288617094657476E-3</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
       <c r="B11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="98">
-        <v>902.5</v>
-      </c>
-      <c r="D11" s="100">
-        <f>C11*F11</f>
-        <v>13042930</v>
-      </c>
-      <c r="E11" s="105">
+        <v>73</v>
+      </c>
+      <c r="C11" s="90">
+        <v>550</v>
+      </c>
+      <c r="D11" s="93">
+        <f>'#ignore - misc calcs'!$B$4</f>
+        <v>3090</v>
+      </c>
+      <c r="E11" s="92">
+        <f>C11*D11</f>
+        <v>1699500</v>
+      </c>
+      <c r="F11" s="97">
         <f t="shared" si="0"/>
-        <v>2.5689228118012591E-2</v>
-      </c>
-      <c r="F11" s="101">
-        <f>(5077+12988)*80%</f>
-        <v>14452</v>
+        <v>3.5775908708328076E-3</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
       <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="98">
-        <v>9382.44</v>
-      </c>
-      <c r="D12" s="100">
-        <f>C12*F12</f>
-        <v>213394215.36000001</v>
-      </c>
-      <c r="E12" s="105">
+        <v>70</v>
+      </c>
+      <c r="C12" s="90">
+        <v>151.52227120181405</v>
+      </c>
+      <c r="D12" s="93">
+        <f>'Spending data'!H41</f>
+        <v>258</v>
+      </c>
+      <c r="E12" s="92">
+        <f>C12*D12</f>
+        <v>39092.745970068027</v>
+      </c>
+      <c r="F12" s="97">
         <f t="shared" si="0"/>
-        <v>0.42029917184615317</v>
-      </c>
-      <c r="F12" s="101">
-        <f>5358+17386</f>
-        <v>22744</v>
+        <v>8.2293528154340337E-5</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
       <c r="B13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="98">
-        <v>1800</v>
-      </c>
-      <c r="D13" s="100">
-        <f>C13*F13</f>
-        <v>26013600</v>
-      </c>
-      <c r="E13" s="105">
+        <v>135</v>
+      </c>
+      <c r="C13" s="90">
+        <v>42.141703401360544</v>
+      </c>
+      <c r="D13" s="93">
+        <f>'Spending data'!H48</f>
+        <v>773</v>
+      </c>
+      <c r="E13" s="92">
+        <f>C13*D13</f>
+        <v>32575.5367292517</v>
+      </c>
+      <c r="F13" s="97">
         <f t="shared" si="0"/>
-        <v>5.1236133642573588E-2</v>
-      </c>
-      <c r="F13" s="101">
-        <f>(5077+12988)*80%</f>
-        <v>14452</v>
+        <v>6.8574252906766517E-5</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="A14" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="B14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="98">
-        <v>8352</v>
-      </c>
-      <c r="D14" s="100">
-        <f>C14*F14</f>
-        <v>189957888</v>
-      </c>
-      <c r="E14" s="105">
+      <c r="B14" s="98"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104">
+        <f>SUM(E15:E19)</f>
+        <v>471079121.474253</v>
+      </c>
+      <c r="F14" s="105">
         <f t="shared" si="0"/>
-        <v>0.37413920933777045</v>
-      </c>
-      <c r="F14" s="101">
-        <f>5358+17386</f>
-        <v>22744</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>80</v>
-      </c>
+        <v>0.99166129121872715</v>
+      </c>
+      <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" ht="16">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="100">
-        <f>SUM(D16:D21)</f>
-        <v>62750738.644571707</v>
-      </c>
-      <c r="E15" s="105">
+        <v>136</v>
+      </c>
+      <c r="C15" s="90">
+        <v>902.5</v>
+      </c>
+      <c r="D15" s="93">
+        <f>(5884+13255)*80%</f>
+        <v>15311.2</v>
+      </c>
+      <c r="E15" s="92">
+        <f>C15*D15</f>
+        <v>13818358</v>
+      </c>
+      <c r="F15" s="97">
         <f t="shared" si="0"/>
-        <v>0.12359324473980852</v>
-      </c>
-      <c r="F15" s="102">
-        <f>SUM(F16:F21)</f>
-        <v>40809</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>142</v>
+        <v>2.9088809314915854E-2</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="99">
-        <f>Monitoring!J37</f>
-        <v>644.2613238095239</v>
-      </c>
-      <c r="D16" s="103">
-        <f>C16*F16</f>
-        <v>654182.94819619064</v>
-      </c>
-      <c r="E16" s="105">
-        <f>D16/$D$27</f>
-        <v>1.2884723744684633E-3</v>
-      </c>
-      <c r="F16" s="104">
-        <f>(5077)*20%</f>
-        <v>1015.4000000000001</v>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="90">
+        <v>9382.44</v>
+      </c>
+      <c r="D16" s="93">
+        <f>5430+15435</f>
+        <v>20865</v>
+      </c>
+      <c r="E16" s="92">
+        <f>C16*D16</f>
+        <v>195764610.60000002</v>
+      </c>
+      <c r="F16" s="97">
+        <f t="shared" si="0"/>
+        <v>0.41210102013221511</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="99">
-        <f>Monitoring!J39</f>
-        <v>744.2613238095239</v>
-      </c>
-      <c r="D17" s="103">
-        <f t="shared" ref="D17:D21" si="1">C17*F17</f>
-        <v>1933293.2147276197</v>
-      </c>
-      <c r="E17" s="105">
-        <f>D17/$D$27</f>
-        <v>3.8077955192693451E-3</v>
-      </c>
-      <c r="F17" s="104">
-        <f>12988*20%</f>
-        <v>2597.6000000000004</v>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="90">
+        <v>1800</v>
+      </c>
+      <c r="D17" s="93">
+        <f>(5884+13255)*80%</f>
+        <v>15311.2</v>
+      </c>
+      <c r="E17" s="92">
+        <f>C17*D17</f>
+        <v>27560160</v>
+      </c>
+      <c r="F17" s="97">
+        <f t="shared" si="0"/>
+        <v>5.8016461791521923E-2</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="99">
-        <f>Monitoring!K37</f>
-        <v>673.94638458049894</v>
-      </c>
-      <c r="D18" s="103">
-        <f t="shared" si="1"/>
-        <v>2737300.6356121548</v>
-      </c>
-      <c r="E18" s="105">
-        <f>D18/$D$27</f>
-        <v>5.3913607184751817E-3</v>
-      </c>
-      <c r="F18" s="104">
-        <f>(5077)*80%</f>
-        <v>4061.6000000000004</v>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="90">
+        <v>8352</v>
+      </c>
+      <c r="D18" s="93">
+        <f>5430+15435</f>
+        <v>20865</v>
+      </c>
+      <c r="E18" s="92">
+        <f>C18*D18</f>
+        <v>174264480</v>
+      </c>
+      <c r="F18" s="97">
+        <f t="shared" si="0"/>
+        <v>0.36684143145538473</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="99">
-        <f>Monitoring!K39</f>
-        <v>1390.7116653061225</v>
-      </c>
-      <c r="D19" s="103">
-        <f t="shared" si="1"/>
-        <v>14450050.487196738</v>
-      </c>
-      <c r="E19" s="105">
-        <f>D19/$D$27</f>
-        <v>2.8460678948855508E-2</v>
-      </c>
-      <c r="F19" s="104">
-        <f>12988*80%</f>
-        <v>10390.400000000001</v>
+    <row r="19" spans="1:7" ht="16">
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="90"/>
+      <c r="D19" s="94">
+        <f>SUM(D20:D25)</f>
+        <v>40004</v>
+      </c>
+      <c r="E19" s="92">
+        <f>SUM(E20:E25)</f>
+        <v>59671512.874252975</v>
+      </c>
+      <c r="F19" s="97">
+        <f t="shared" si="0"/>
+        <v>0.1256135685246895</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="99">
-        <f>Monitoring!O37</f>
-        <v>1288.5226476190478</v>
-      </c>
-      <c r="D20" s="103">
-        <f t="shared" si="1"/>
-        <v>6903904.3459428577</v>
-      </c>
-      <c r="E20" s="105">
-        <f>D20/$D$27</f>
-        <v>1.359786287650586E-2</v>
-      </c>
-      <c r="F20" s="104">
-        <f>5358</f>
-        <v>5358</v>
+        <v>127</v>
+      </c>
+      <c r="C20" s="91">
+        <f>Monitoring!J37</f>
+        <v>644.2613238095239</v>
+      </c>
+      <c r="D20" s="96">
+        <f>(5884)*20%</f>
+        <v>1176.8</v>
+      </c>
+      <c r="E20" s="95">
+        <f t="shared" ref="E20:E25" si="1">C20*D20</f>
+        <v>758166.72585904773</v>
+      </c>
+      <c r="F20" s="97">
+        <f t="shared" si="0"/>
+        <v>1.5960049173301143E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="91">
+        <f>Monitoring!J39</f>
+        <v>744.2613238095239</v>
+      </c>
+      <c r="D21" s="96">
+        <f>13255*20%</f>
+        <v>2651</v>
+      </c>
+      <c r="E21" s="95">
+        <f t="shared" si="1"/>
+        <v>1973036.7694190477</v>
+      </c>
+      <c r="F21" s="97">
+        <f t="shared" si="0"/>
+        <v>4.1534088461847836E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="91">
+        <f>Monitoring!K37</f>
+        <v>673.94638458049894</v>
+      </c>
+      <c r="D22" s="96">
+        <f>(5884)*80%</f>
+        <v>4707.2</v>
+      </c>
+      <c r="E22" s="95">
+        <f t="shared" si="1"/>
+        <v>3172400.4214973245</v>
+      </c>
+      <c r="F22" s="97">
+        <f t="shared" si="0"/>
+        <v>6.6781705128419995E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="91">
+        <f>Monitoring!K39</f>
+        <v>1390.7116653061225</v>
+      </c>
+      <c r="D23" s="96">
+        <f>13255*80%</f>
+        <v>10604</v>
+      </c>
+      <c r="E23" s="95">
+        <f t="shared" si="1"/>
+        <v>14747106.498906123</v>
+      </c>
+      <c r="F23" s="97">
+        <f t="shared" si="0"/>
+        <v>3.1043903254890093E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="91">
+        <f>Monitoring!O37</f>
+        <v>1288.5226476190478</v>
+      </c>
+      <c r="D24" s="96">
+        <f>5430</f>
+        <v>5430</v>
+      </c>
+      <c r="E24" s="95">
+        <f t="shared" si="1"/>
+        <v>6996677.9765714295</v>
+      </c>
+      <c r="F24" s="97">
+        <f t="shared" si="0"/>
+        <v>1.4728597384606594E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C25" s="91">
         <f>Monitoring!O39</f>
         <v>2074.7732090702948</v>
       </c>
-      <c r="D21" s="103">
+      <c r="D25" s="96">
+        <f>15435</f>
+        <v>15435</v>
+      </c>
+      <c r="E25" s="95">
         <f t="shared" si="1"/>
-        <v>36072007.012896143</v>
-      </c>
-      <c r="E21" s="105">
-        <f>D21/$D$27</f>
-        <v>7.1047074302234156E-2</v>
-      </c>
-      <c r="F21" s="104">
-        <f>17386</f>
-        <v>17386</v>
+        <v>32024124.482000001</v>
+      </c>
+      <c r="F25" s="97">
+        <f t="shared" si="0"/>
+        <v>6.7413483608835895E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="98">
-        <v>16.190283900226756</v>
-      </c>
-      <c r="D22" s="100">
-        <f>'Spending data'!H51</f>
-        <v>23669.780000000002</v>
-      </c>
-      <c r="E22" s="105">
-        <f>D22/$D$27</f>
-        <v>4.6619768558381598E-5</v>
-      </c>
-      <c r="F22" s="101">
-        <f>D22/C22</f>
-        <v>1461.9743635050459</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="98">
-        <v>14.517804988662132</v>
-      </c>
-      <c r="D23" s="100">
-        <f>'Spending data'!H58</f>
-        <v>8494.1999999999989</v>
-      </c>
-      <c r="E23" s="105">
-        <f>D23/$D$27</f>
-        <v>1.6730093735075058E-5</v>
-      </c>
-      <c r="F23" s="101">
-        <f>D23/C23</f>
-        <v>585.08844874508611</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>81</v>
+      <c r="B26" s="106"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109">
+        <f>SUM(E27:E28)</f>
+        <v>54856.81</v>
+      </c>
+      <c r="F26" s="105">
+        <f t="shared" si="0"/>
+        <v>1.154782128031832E-4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="102">
-        <f>SUM(D3:D15,D22:D23)</f>
-        <v>507719809.25556308</v>
-      </c>
-      <c r="E27" s="102"/>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="90">
+        <v>16.190283900226756</v>
+      </c>
+      <c r="D27" s="93">
+        <f>E27/C27</f>
+        <v>2338.9589851151177</v>
+      </c>
+      <c r="E27" s="92">
+        <f>'Spending data'!H51</f>
+        <v>37868.410000000003</v>
+      </c>
+      <c r="F27" s="97">
+        <f t="shared" si="0"/>
+        <v>7.971619765163507E-5</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="90">
+        <v>14.517804988662132</v>
+      </c>
+      <c r="D28" s="93">
+        <f>E28/C28</f>
+        <v>1170.1768974901722</v>
+      </c>
+      <c r="E28" s="92">
+        <f>'Spending data'!H58</f>
+        <v>16988.399999999998</v>
+      </c>
+      <c r="F28" s="97">
+        <f t="shared" si="0"/>
+        <v>3.5762015151548135E-5</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="94">
+        <f>SUMIFS(E3:E28,A3:A28,"&lt;&gt;")</f>
+        <v>475040344.56695235</v>
+      </c>
+      <c r="F32" s="94"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="102">
+      <c r="E33" s="94">
         <v>1247757.8570000001</v>
       </c>
-      <c r="E28" s="20">
-        <f>D27/D28</f>
-        <v>406.90572005395359</v>
+      <c r="F33" s="20">
+        <f>E32/E33</f>
+        <v>380.71516993617485</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="B29" t="s">
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="102">
+      <c r="E34" s="94">
         <v>65394</v>
       </c>
-      <c r="E29" s="20">
-        <f>D27/D29</f>
-        <v>7764.0121304028362</v>
+      <c r="F34" s="20">
+        <f>E32/E34</f>
+        <v>7264.280279030987</v>
       </c>
     </row>
   </sheetData>
@@ -33432,50 +33560,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94" t="s">
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
       <c r="Q1" s="87"/>
       <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="96" t="s">
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97" t="s">
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="85"/>
@@ -33497,7 +33625,7 @@
       <c r="H3" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="94"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="84" t="s">
         <v>121</v>
       </c>
@@ -33579,7 +33707,7 @@
       <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:19" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="111" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="57" t="s">
@@ -33614,7 +33742,7 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A7" s="90"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="33" t="s">
         <v>110</v>
       </c>
@@ -33653,7 +33781,7 @@
       <c r="R7" s="71"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="90"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="33" t="s">
         <v>109</v>
       </c>
@@ -33692,7 +33820,7 @@
       <c r="R8" s="71"/>
     </row>
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A9" s="90"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="55" t="s">
         <v>108</v>
       </c>
@@ -33725,7 +33853,7 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="90"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="33" t="s">
         <v>106</v>
       </c>
@@ -33762,7 +33890,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="90"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="33" t="s">
         <v>105</v>
       </c>
@@ -33799,7 +33927,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A12" s="90"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="33" t="s">
         <v>104</v>
       </c>
@@ -33839,7 +33967,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="90"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="33" t="s">
         <v>102</v>
       </c>
@@ -33876,7 +34004,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="90"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="48" t="s">
         <v>101</v>
       </c>
@@ -33917,7 +34045,7 @@
       <c r="R14" s="67"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="90"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="33" t="s">
         <v>99</v>
       </c>
@@ -33958,7 +34086,7 @@
       <c r="R15" s="67"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="90"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="33" t="s">
         <v>97</v>
       </c>
@@ -33999,7 +34127,7 @@
       <c r="R16" s="67"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="90"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="48" t="s">
         <v>95</v>
       </c>
@@ -34037,7 +34165,7 @@
       <c r="R17" s="66"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="91"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="33" t="s">
         <v>90</v>
       </c>
@@ -34085,7 +34213,7 @@
       <c r="O19" s="49"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="113" t="s">
         <v>113</v>
       </c>
       <c r="B20" s="57" t="s">
@@ -34120,7 +34248,7 @@
       <c r="S20" s="52"/>
     </row>
     <row r="21" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A21" s="92"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="33" t="s">
         <v>110</v>
       </c>
@@ -34157,7 +34285,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A22" s="92"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="33" t="s">
         <v>109</v>
       </c>
@@ -34194,7 +34322,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A23" s="92"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="55" t="s">
         <v>108</v>
       </c>
@@ -34227,7 +34355,7 @@
       <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A24" s="92"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="33" t="s">
         <v>106</v>
       </c>
@@ -34264,7 +34392,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A25" s="92"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="33" t="s">
         <v>105</v>
       </c>
@@ -34301,7 +34429,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="24" customHeight="1">
-      <c r="A26" s="92"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="33" t="s">
         <v>104</v>
       </c>
@@ -34341,7 +34469,7 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="92"/>
+      <c r="A27" s="113"/>
       <c r="B27" s="33" t="s">
         <v>102</v>
       </c>
@@ -34378,7 +34506,7 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="92"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="48" t="s">
         <v>101</v>
       </c>
@@ -34418,7 +34546,7 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="92"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="33" t="s">
         <v>99</v>
       </c>
@@ -34458,7 +34586,7 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="92"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="33" t="s">
         <v>97</v>
       </c>
@@ -34498,7 +34626,7 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="92"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="48" t="s">
         <v>95</v>
       </c>
@@ -34535,7 +34663,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="36" customFormat="1" ht="33">
-      <c r="A32" s="92"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="43" t="s">
         <v>94</v>
       </c>
@@ -34562,7 +34690,7 @@
       <c r="R32" s="37"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="92"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="33" t="s">
         <v>90</v>
       </c>

--- a/t2dm-poltava/t2dm_poltava_progbook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_progbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9D75F7-553A-3144-BF9B-71A5E8CA115B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD6980E-B2A3-5944-8A44-436A2548A8F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25340" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25340" windowHeight="16540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="156">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -786,6 +786,15 @@
   <si>
     <t>PLWT2DM</t>
   </si>
+  <si>
+    <t>non-pharma</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
 </sst>
 </file>
 
@@ -1092,7 +1101,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1385,6 +1394,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4807,22 +4817,22 @@
                   <c:v>32575.5367292517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>471079121.474253</c:v>
+                  <c:v>335868432.98575366</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13818358</c:v>
+                  <c:v>25282291.19047619</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>195764610.60000002</c:v>
+                  <c:v>113020872.24000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27560160</c:v>
+                  <c:v>43196914.285714284</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>174264480</c:v>
+                  <c:v>100608192</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59671512.874252975</c:v>
+                  <c:v>53760163.269563198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29523,7 +29533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -31610,7 +31620,7 @@
   <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -31899,10 +31909,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7089B648-EE74-8145-9F25-536CEBA19B8C}">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D23"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -31939,7 +31949,7 @@
       </c>
       <c r="F3" s="101">
         <f>SUM(F4:F6)</f>
-        <v>1.661969996926708E-3</v>
+        <v>2.3232310243627933E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -31960,7 +31970,7 @@
       </c>
       <c r="F4" s="97">
         <f>E4/$E$32</f>
-        <v>1.1079799979511386E-3</v>
+        <v>1.5488206829085288E-3</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>143</v>
@@ -31984,7 +31994,7 @@
       </c>
       <c r="F5" s="97">
         <f>E5/$E$32</f>
-        <v>4.1549249923167699E-4</v>
+        <v>5.8080775609069832E-4</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>144</v>
@@ -32008,7 +32018,7 @@
       </c>
       <c r="F6" s="97">
         <f>E6/$E$32</f>
-        <v>1.3849749974389233E-4</v>
+        <v>1.936025853635661E-4</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>145</v>
@@ -32027,7 +32037,7 @@
       </c>
       <c r="F7" s="101">
         <f>SUM(F8:F8)</f>
-        <v>7.0394021018328377E-4</v>
+        <v>9.8402241834597416E-4</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -32049,7 +32059,7 @@
       </c>
       <c r="F8" s="97">
         <f>E8/$E$32</f>
-        <v>7.0394021018328377E-4</v>
+        <v>9.8402241834597416E-4</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>77</v>
@@ -32068,7 +32078,7 @@
       </c>
       <c r="F9" s="101">
         <f>SUM(F10:F13)</f>
-        <v>5.8573203613596619E-3</v>
+        <v>8.1878183170010343E-3</v>
       </c>
       <c r="G9" s="19"/>
     </row>
@@ -32089,7 +32099,7 @@
       </c>
       <c r="F10" s="97">
         <f t="shared" ref="F10:F28" si="0">E10/$E$32</f>
-        <v>2.1288617094657476E-3</v>
+        <v>2.9758886015719961E-3</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>84</v>
@@ -32112,7 +32122,7 @@
       </c>
       <c r="F11" s="97">
         <f t="shared" si="0"/>
-        <v>3.5775908708328076E-3</v>
+        <v>5.0010349879754277E-3</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>83</v>
@@ -32135,7 +32145,7 @@
       </c>
       <c r="F12" s="97">
         <f t="shared" si="0"/>
-        <v>8.2293528154340337E-5</v>
+        <v>1.1503629913053581E-4</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>78</v>
@@ -32158,7 +32168,7 @@
       </c>
       <c r="F13" s="97">
         <f t="shared" si="0"/>
-        <v>6.8574252906766517E-5</v>
+        <v>9.5858428323075253E-5</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>78</v>
@@ -32173,11 +32183,11 @@
       <c r="D14" s="103"/>
       <c r="E14" s="104">
         <f>SUM(E15:E19)</f>
-        <v>471079121.474253</v>
+        <v>335868432.98575366</v>
       </c>
       <c r="F14" s="105">
         <f t="shared" si="0"/>
-        <v>0.99166129121872715</v>
+        <v>0.98834350380596314</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -32189,16 +32199,16 @@
         <v>902.5</v>
       </c>
       <c r="D15" s="93">
-        <f>(5884+13255)*80%</f>
-        <v>15311.2</v>
+        <f>27998*60/70+12046*1/3</f>
+        <v>28013.619047619046</v>
       </c>
       <c r="E15" s="92">
         <f>C15*D15</f>
-        <v>13818358</v>
+        <v>25282291.19047619</v>
       </c>
       <c r="F15" s="97">
         <f t="shared" si="0"/>
-        <v>2.9088809314915854E-2</v>
+        <v>7.4396953703886062E-2</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>79</v>
@@ -32212,22 +32222,21 @@
         <v>9382.44</v>
       </c>
       <c r="D16" s="93">
-        <f>5430+15435</f>
-        <v>20865</v>
+        <v>12046</v>
       </c>
       <c r="E16" s="92">
         <f>C16*D16</f>
-        <v>195764610.60000002</v>
+        <v>113020872.24000001</v>
       </c>
       <c r="F16" s="97">
         <f t="shared" si="0"/>
-        <v>0.41210102013221511</v>
+        <v>0.33258095701308665</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -32235,22 +32244,22 @@
         <v>1800</v>
       </c>
       <c r="D17" s="93">
-        <f>(5884+13255)*80%</f>
-        <v>15311.2</v>
+        <f>27998*60/70</f>
+        <v>23998.285714285714</v>
       </c>
       <c r="E17" s="92">
         <f>C17*D17</f>
-        <v>27560160</v>
+        <v>43196914.285714284</v>
       </c>
       <c r="F17" s="97">
         <f t="shared" si="0"/>
-        <v>5.8016461791521923E-2</v>
+        <v>0.12711343319531199</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:12">
       <c r="B18" t="s">
         <v>139</v>
       </c>
@@ -32258,43 +32267,42 @@
         <v>8352</v>
       </c>
       <c r="D18" s="93">
-        <f>5430+15435</f>
-        <v>20865</v>
+        <v>12046</v>
       </c>
       <c r="E18" s="92">
         <f>C18*D18</f>
-        <v>174264480</v>
+        <v>100608192</v>
       </c>
       <c r="F18" s="97">
         <f t="shared" si="0"/>
-        <v>0.36684143145538473</v>
+        <v>0.29605477391523949</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16">
+    <row r="19" spans="1:12" ht="16">
       <c r="B19" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="94">
         <f>SUM(D20:D25)</f>
-        <v>40004</v>
+        <v>40043</v>
       </c>
       <c r="E19" s="92">
         <f>SUM(E20:E25)</f>
-        <v>59671512.874252975</v>
+        <v>53760163.269563198</v>
       </c>
       <c r="F19" s="97">
         <f t="shared" si="0"/>
-        <v>0.1256135685246895</v>
+        <v>0.15819738597843896</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:12">
       <c r="B20" s="89" t="s">
         <v>127</v>
       </c>
@@ -32303,19 +32311,19 @@
         <v>644.2613238095239</v>
       </c>
       <c r="D20" s="96">
-        <f>(5884)*20%</f>
-        <v>1176.8</v>
+        <f>8565*10/70</f>
+        <v>1223.5714285714287</v>
       </c>
       <c r="E20" s="95">
         <f t="shared" ref="E20:E25" si="1">C20*D20</f>
-        <v>758166.72585904773</v>
+        <v>788299.74834693898</v>
       </c>
       <c r="F20" s="97">
         <f t="shared" si="0"/>
-        <v>1.5960049173301143E-3</v>
+        <v>2.3196908634864765E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:12">
       <c r="B21" s="89" t="s">
         <v>128</v>
       </c>
@@ -32324,19 +32332,38 @@
         <v>744.2613238095239</v>
       </c>
       <c r="D21" s="96">
-        <f>13255*20%</f>
-        <v>2651</v>
+        <f>19433*10/70</f>
+        <v>2776.1428571428573</v>
       </c>
       <c r="E21" s="95">
         <f t="shared" si="1"/>
-        <v>1973036.7694190477</v>
+        <v>2066175.757941497</v>
       </c>
       <c r="F21" s="97">
         <f t="shared" si="0"/>
-        <v>4.1534088461847836E-3</v>
+        <v>6.0800336903630925E-3</v>
+      </c>
+      <c r="G21" s="12">
+        <f>D16*2/3</f>
+        <v>8030.666666666667</v>
+      </c>
+      <c r="H21" s="93">
+        <f>27998*10/70</f>
+        <v>3999.7142857142858</v>
+      </c>
+      <c r="I21" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="119">
+        <f>H21/$H$24</f>
+        <v>9.988298585841289E-2</v>
+      </c>
+      <c r="L21">
+        <f>72%*H24</f>
+        <v>28831.68</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:12">
       <c r="B22" s="89" t="s">
         <v>129</v>
       </c>
@@ -32345,19 +32372,30 @@
         <v>673.94638458049894</v>
       </c>
       <c r="D22" s="96">
-        <f>(5884)*80%</f>
-        <v>4707.2</v>
+        <f>8565*60/70</f>
+        <v>7341.4285714285716</v>
       </c>
       <c r="E22" s="95">
         <f t="shared" si="1"/>
-        <v>3172400.4214973245</v>
+        <v>4947729.2433702629</v>
       </c>
       <c r="F22" s="97">
         <f t="shared" si="0"/>
-        <v>6.6781705128419995E-3</v>
+        <v>1.4559439280449471E-2</v>
+      </c>
+      <c r="H22" s="93">
+        <f>27998*60/70</f>
+        <v>23998.285714285714</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="119">
+        <f>H22/$H$24</f>
+        <v>0.59929791515047737</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:12">
       <c r="B23" s="89" t="s">
         <v>130</v>
       </c>
@@ -32366,19 +32404,30 @@
         <v>1390.7116653061225</v>
       </c>
       <c r="D23" s="96">
-        <f>13255*80%</f>
-        <v>10604</v>
+        <f>19433*60/70</f>
+        <v>16656.857142857141</v>
       </c>
       <c r="E23" s="95">
         <f t="shared" si="1"/>
-        <v>14747106.498906123</v>
+        <v>23164885.535909038</v>
       </c>
       <c r="F23" s="97">
         <f t="shared" si="0"/>
-        <v>3.1043903254890093E-2</v>
+        <v>6.8166168318639017E-2</v>
+      </c>
+      <c r="H23" s="94">
+        <f>D16</f>
+        <v>12046</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="119">
+        <f>H23/$H$24</f>
+        <v>0.30081909899110976</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:12">
       <c r="B24" s="89" t="s">
         <v>131</v>
       </c>
@@ -32387,19 +32436,22 @@
         <v>1288.5226476190478</v>
       </c>
       <c r="D24" s="96">
-        <f>5430</f>
-        <v>5430</v>
+        <v>2795</v>
       </c>
       <c r="E24" s="95">
         <f t="shared" si="1"/>
-        <v>6996677.9765714295</v>
+        <v>3601420.8000952387</v>
       </c>
       <c r="F24" s="97">
         <f t="shared" si="0"/>
-        <v>1.4728597384606594E-2</v>
+        <v>1.059772369973448E-2</v>
+      </c>
+      <c r="H24" s="94">
+        <f>SUM(H21:H23)</f>
+        <v>40044</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:12">
       <c r="B25" s="89" t="s">
         <v>132</v>
       </c>
@@ -32408,19 +32460,18 @@
         <v>2074.7732090702948</v>
       </c>
       <c r="D25" s="96">
-        <f>15435</f>
-        <v>15435</v>
+        <v>9250</v>
       </c>
       <c r="E25" s="95">
         <f t="shared" si="1"/>
-        <v>32024124.482000001</v>
+        <v>19191652.183900226</v>
       </c>
       <c r="F25" s="97">
         <f t="shared" si="0"/>
-        <v>6.7413483608835895E-2</v>
+        <v>5.6474330125766435E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:12">
       <c r="A26" s="98" t="s">
         <v>150</v>
       </c>
@@ -32433,10 +32484,10 @@
       </c>
       <c r="F26" s="105">
         <f t="shared" si="0"/>
-        <v>1.154782128031832E-4</v>
+        <v>1.6142443432699049E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:12">
       <c r="B27" t="s">
         <v>71</v>
       </c>
@@ -32453,13 +32504,13 @@
       </c>
       <c r="F27" s="97">
         <f t="shared" si="0"/>
-        <v>7.971619765163507E-5</v>
+        <v>1.1143350594233515E-4</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:12">
       <c r="B28" t="s">
         <v>72</v>
       </c>
@@ -32476,19 +32527,19 @@
       </c>
       <c r="F28" s="97">
         <f t="shared" si="0"/>
-        <v>3.5762015151548135E-5</v>
+        <v>4.999092838465534E-5</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:12">
       <c r="B32" s="89" t="s">
         <v>146</v>
       </c>
       <c r="E32" s="94">
         <f>SUMIFS(E3:E28,A3:A28,"&lt;&gt;")</f>
-        <v>475040344.56695235</v>
+        <v>339829656.078453</v>
       </c>
       <c r="F32" s="94"/>
     </row>
@@ -32501,7 +32552,7 @@
       </c>
       <c r="F33" s="20">
         <f>E32/E33</f>
-        <v>380.71516993617485</v>
+        <v>272.35224701009673</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -32513,7 +32564,7 @@
       </c>
       <c r="F34" s="20">
         <f>E32/E34</f>
-        <v>7264.280279030987</v>
+        <v>5196.6488680682178</v>
       </c>
     </row>
   </sheetData>

--- a/t2dm-poltava/t2dm_poltava_progbook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_progbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD6980E-B2A3-5944-8A44-436A2548A8F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF401DFB-B619-BB4E-AF51-7A913DAFAB03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25340" windowHeight="16540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,16 +284,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">• cost of providing diary and glucometer
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>• clinical exam at diagnosis</t>
         </r>
       </text>
@@ -303,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="153">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -533,56 +523,6 @@
     <t>Estimated number who received service (2016)</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We estimate that 2363 people were screened positive in 2016, and that around </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>92%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of these received apositive confirmatory test</t>
-    </r>
-  </si>
-  <si>
-    <t>We estimate that 2000 people were initiated onto treatment in 2016, and that around a third of initiations happened through IEC</t>
-  </si>
-  <si>
-    <t>We estimate around 18000 people received non-insulin treatment in 2016, and that 80% of these were on oral medication (20% on non-pharma treatment)</t>
-  </si>
-  <si>
-    <t>We estimate around 22750 people received insulin in 2016</t>
-  </si>
-  <si>
-    <t>Around 2.5% of those experiencing treatment failure in 2016 are assumed to receive enhanced adherence counseling at PHC</t>
-  </si>
-  <si>
-    <t>Around 5% of those experiencing treatment failure in 2016 are assumed to receive enhanced adherence counseling at PHC</t>
-  </si>
-  <si>
-    <t>We estimate that 2000 people were initiated onto treatment in 2016, and that all of these people were provided with a diary and glucometer</t>
-  </si>
-  <si>
-    <t>We estimate that 2000 people were initiated onto treatment in 2016, and that all of these people had a clinical exam</t>
-  </si>
-  <si>
     <t>Medication to manage hypertension and CVD risk</t>
   </si>
   <si>
@@ -754,18 +694,6 @@
     <t>Annual patient monitoring costs</t>
   </si>
   <si>
-    <t>See details below</t>
-  </si>
-  <si>
-    <t>Assuming 8% positivity among those screened (equal to overall prevalence) = 1969 screened positive</t>
-  </si>
-  <si>
-    <t>Assuming 8% positivity among those screened (equal to overall prevalence) = 738 screened positive</t>
-  </si>
-  <si>
-    <t>Assuming 8% positivity among those screened (equal to overall prevalence) = 246 screened positive</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -781,12 +709,6 @@
     <t>Adherence</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>PLWT2DM</t>
-  </si>
-  <si>
     <t>non-pharma</t>
   </si>
   <si>
@@ -795,19 +717,56 @@
   <si>
     <t>oral</t>
   </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>Monitoring, evaluation, and other costs</t>
+  </si>
+  <si>
+    <t>Monitoring and evaluation</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Estimated total population (Poltava) in 2015</t>
+  </si>
+  <si>
+    <t>Share of total pop in Poltava in 2015</t>
+  </si>
+  <si>
+    <t>Estimated total population (Ukraine) in 2015</t>
+  </si>
+  <si>
+    <t>Total Ukraine spend (USD)</t>
+  </si>
+  <si>
+    <t>USD-UAH exchange rate</t>
+  </si>
+  <si>
+    <t>Total Ukraine spend (UAH)</t>
+  </si>
+  <si>
+    <t>Total desired Poltava spend (UAH)</t>
+  </si>
+  <si>
+    <t>Total desired Poltava spend (USD)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _U_S_$_-;\-* #,##0.00\ _U_S_$_-;_-* &quot;-&quot;??\ _U_S_$_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _k_r_._-;\-* #,##0.000\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;???\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,6 +885,15 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,7 +1069,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1370,6 +1338,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1394,7 +1363,17 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4239,13 +4218,13 @@
                   <c:v>334400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1807196.8</c:v>
+                  <c:v>50728.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>265430.39999999997</c:v>
+                  <c:v>351439.19999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>710711.65999999992</c:v>
+                  <c:v>813462.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>37868.410000000003</c:v>
@@ -4259,587 +4238,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29CD-5143-B4BB-1B546F6DD5C1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#ignore - summary'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estimated baseline spend (2016)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-BB67-5B4E-B192-6FD4B7490CEF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-EA00-3E48-9279-254E1B268BEA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#ignore - summary'!$B$4:$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Blood glucose test (PHC level)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Blood glucose test (Feldsher post family nurse)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Blood glucose test (outreach/community-based)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Confirmatory test (oral glucose tolerance test)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Clinical exam at diagnosis</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Provision of diary and glucometer at initiation</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>IEC through residential school/courses</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>IEC through PHC clinic staff</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Annual co-payments for oral medication</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Annual co-payments for insulin</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Provision of glucometer strips (oral treatment)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Provision of glucometer strips (insulin)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Annual patient monitoring costs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#ignore - summary'!$E$4:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>526335.20000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>197375.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65791.900000000009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>334400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>334400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2782463.4826993197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1011295.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1699500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39092.745970068027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32575.5367292517</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>335868432.98575366</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25282291.19047619</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>113020872.24000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43196914.285714284</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100608192</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>53760163.269563198</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C55D-3644-AE5A-EBF77BD65C13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4977,566 +4375,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6096,47 +4935,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71437CCD-FB1B-4D40-AD18-92FE9279AE08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -27049,7 +25847,7 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
@@ -27057,7 +25855,7 @@
     <col min="5" max="15" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27065,7 +25863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="48">
+    <row r="2" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -27109,7 +25907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -27153,7 +25951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -27197,7 +25995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -27241,7 +26039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -27285,7 +26083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -27329,7 +26127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -27373,7 +26171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -27417,7 +26215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -27461,7 +26259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -28054,11 +26852,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.83203125" customWidth="1"/>
@@ -28066,7 +26864,7 @@
     <col min="5" max="5" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Blood glucose test (PHC level)</v>
@@ -28094,7 +26892,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -28114,7 +26912,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -28133,7 +26931,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -28150,7 +26948,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -28167,7 +26965,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -28187,7 +26985,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Blood glucose test (Feldsher post family nurse)</v>
@@ -28215,7 +27013,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -28235,7 +27033,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -28254,7 +27052,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -28271,7 +27069,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -28288,7 +27086,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -28308,7 +27106,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Blood glucose test (outreach/community-based)</v>
@@ -28336,7 +27134,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -28356,7 +27154,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -28375,7 +27173,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -28392,7 +27190,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -28409,7 +27207,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -28429,7 +27227,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test</v>
@@ -28457,7 +27255,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -28477,7 +27275,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -28496,7 +27294,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -28513,7 +27311,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -28530,7 +27328,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -28550,7 +27348,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Initiation</v>
@@ -28578,7 +27376,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -28594,11 +27392,11 @@
       <c r="G30" s="6"/>
       <c r="H30" s="7">
         <f>H31*H34</f>
-        <v>1807196.8</v>
+        <v>50728.399999999994</v>
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -28613,12 +27411,12 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <f>327.28+550</f>
-        <v>877.28</v>
+        <f>327.28</f>
+        <v>327.27999999999997</v>
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -28635,7 +27433,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -28652,7 +27450,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -28667,12 +27465,12 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6">
-        <f>ROUND('#ignore - misc calcs'!$B$4*2/3,0)</f>
-        <v>2060</v>
+        <f>ROUND('#ignore - misc calcs'!$B$4*5%,0)</f>
+        <v>155</v>
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Initiation counselling - patient schools</v>
@@ -28700,7 +27498,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -28716,11 +27514,11 @@
       <c r="G37" s="6"/>
       <c r="H37" s="7">
         <f>H38*H41</f>
-        <v>265430.39999999997</v>
+        <v>351439.19999999995</v>
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
@@ -28736,11 +27534,11 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6">
         <f>H31+151.52</f>
-        <v>1028.8</v>
+        <v>478.79999999999995</v>
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -28757,7 +27555,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
@@ -28774,7 +27572,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -28789,12 +27587,12 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6">
-        <f>ROUND('#ignore - misc calcs'!$B$4*1/12,0)</f>
-        <v>258</v>
+        <f>ROUND('#ignore - misc calcs'!$B$4*95%*25%,0)</f>
+        <v>734</v>
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Initiation counselling - PHC</v>
@@ -28822,7 +27620,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
@@ -28838,11 +27636,11 @@
       <c r="G44" s="6"/>
       <c r="H44" s="7">
         <f>H45*H48</f>
-        <v>710711.65999999992</v>
+        <v>813462.84</v>
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
@@ -28858,11 +27656,11 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6">
         <f>H31+42.14</f>
-        <v>919.42</v>
+        <v>369.41999999999996</v>
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>30</v>
       </c>
@@ -28879,7 +27677,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -28896,7 +27694,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
@@ -28911,12 +27709,12 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6">
-        <f>ROUND('#ignore - misc calcs'!$B$4*1/4,0)</f>
-        <v>773</v>
+        <f>ROUND('#ignore - misc calcs'!$B$4*95%*75%,0)</f>
+        <v>2202</v>
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Advanced adherence counselling - PHC</v>
@@ -28944,7 +27742,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -28964,7 +27762,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
@@ -28983,7 +27781,7 @@
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -29000,7 +27798,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>32</v>
       </c>
@@ -29017,7 +27815,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
@@ -29037,7 +27835,7 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Advanced adherence counselling - family nurse</v>
@@ -29065,7 +27863,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -29085,7 +27883,7 @@
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>28</v>
       </c>
@@ -29104,7 +27902,7 @@
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
@@ -29121,7 +27919,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>32</v>
       </c>
@@ -29138,7 +27936,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -29533,11 +28331,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.83203125" customWidth="1"/>
@@ -29545,7 +28343,7 @@
     <col min="7" max="15" width="15.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64">
+    <row r="1" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -29598,7 +28396,7 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -29630,7 +28428,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="64">
+    <row r="4" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -29683,7 +28481,7 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -29708,7 +28506,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="64">
+    <row r="7" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -29761,7 +28559,7 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -29790,7 +28588,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="10" spans="1:15" ht="64">
+    <row r="10" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -29843,13 +28641,13 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
       <c r="B11" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>38</v>
@@ -29870,7 +28668,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="13" spans="1:15" ht="64">
+    <row r="13" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -29923,7 +28721,7 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -31620,16 +30418,16 @@
   <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1" s="110">
         <f>B2*8%</f>
         <v>3650.88</v>
@@ -31639,7 +30437,7 @@
         <v>3358.8096</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="13">
         <v>45636</v>
       </c>
@@ -31650,7 +30448,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="13">
         <v>3344</v>
       </c>
@@ -31662,7 +30460,7 @@
         <v>3097.92</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="13">
         <v>3090</v>
       </c>
@@ -31670,7 +30468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="13">
         <v>29239</v>
       </c>
@@ -31678,7 +30476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -31686,7 +30484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="13">
         <f>'Spending data'!H2</f>
         <v>526335.20000000007</v>
@@ -31696,7 +30494,7 @@
         <v>Blood glucose test (PHC level)</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="13">
         <f>'Spending data'!H9</f>
         <v>197375.7</v>
@@ -31706,7 +30504,7 @@
         <v>Blood glucose test (Feldsher post family nurse)</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <f>'Spending data'!H16</f>
         <v>65791.900000000009</v>
@@ -31716,7 +30514,7 @@
         <v>Blood glucose test (outreach/community-based)</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="13">
         <f>'Spending data'!H23</f>
         <v>334400</v>
@@ -31726,37 +30524,37 @@
         <v>Confirmatory test</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <f>'Spending data'!H30</f>
-        <v>1807196.8</v>
+        <v>50728.399999999994</v>
       </c>
       <c r="C12" t="str">
         <f>'Program targeting'!A7</f>
         <v>Initiation</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="13">
         <f>'Spending data'!H37</f>
-        <v>265430.39999999997</v>
+        <v>351439.19999999995</v>
       </c>
       <c r="C13" t="str">
         <f>'Program targeting'!A8</f>
         <v>Initiation counselling - patient schools</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="13">
         <f>'Spending data'!H44</f>
-        <v>710711.65999999992</v>
+        <v>813462.84</v>
       </c>
       <c r="C14" t="str">
         <f>'Program targeting'!A9</f>
         <v>Initiation counselling - PHC</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="13">
         <f>'Spending data'!H51</f>
         <v>37868.410000000003</v>
@@ -31766,7 +30564,7 @@
         <v>Advanced adherence counselling - PHC</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="13">
         <f>'Spending data'!H58</f>
         <v>16988.399999999998</v>
@@ -31776,7 +30574,7 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="13">
         <f>(1247757.857-52315)</f>
         <v>1195442.8570000001</v>
@@ -31785,7 +30583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="14">
         <f>'Spending data'!H6/$B$19</f>
         <v>2.5449982675332508E-2</v>
@@ -31794,7 +30592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="14">
         <f>'Spending data'!H13/$B$19</f>
         <v>9.5437435032496905E-3</v>
@@ -31803,7 +30601,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="14">
         <f>'Spending data'!H20/$B$19</f>
         <v>3.1812478344165635E-3</v>
@@ -31812,7 +30610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>6.85</v>
       </c>
@@ -31820,7 +30618,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24">
         <f>B23</f>
         <v>6.85</v>
@@ -31829,7 +30627,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>8</v>
       </c>
@@ -31837,7 +30635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="15">
         <f>B20*'Program effects'!G2</f>
         <v>0.17433238132602766</v>
@@ -31846,7 +30644,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="15">
         <f>B21*'Program effects'!H2</f>
         <v>6.5374642997260382E-2</v>
@@ -31855,7 +30653,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="15">
         <f>B22*'Program effects'!I2</f>
         <v>2.5449982675332508E-2</v>
@@ -31864,7 +30662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
         <f>SUM(B26:B28)</f>
         <v>0.26515700699862055</v>
@@ -31876,7 +30674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="13">
         <v>13733</v>
       </c>
@@ -31884,7 +30682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="18">
         <f>B30*B29</f>
         <v>3641.4011771120558</v>
@@ -31893,7 +30691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="13">
         <v>3650.88</v>
       </c>
@@ -31909,20 +30707,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7089B648-EE74-8145-9F25-536CEBA19B8C}">
-  <dimension ref="A2:L34"/>
+  <dimension ref="A2:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="14.83203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="64">
+    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="120" t="s">
+        <v>141</v>
+      </c>
       <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
@@ -31932,13 +30735,10 @@
       <c r="E2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="98" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="99"/>
@@ -31949,15 +30749,21 @@
       </c>
       <c r="F3" s="101">
         <f>SUM(F4:F6)</f>
-        <v>2.3232310243627933E-3</v>
+        <v>1.9003691902116909E-3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="13">
+        <v>460000000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="90">
-        <f>'Spending data'!H3</f>
+        <f>'Spending data'!$H$3</f>
         <v>17.3</v>
       </c>
       <c r="D4" s="93">
@@ -31965,23 +30771,27 @@
         <v>30424.000000000004</v>
       </c>
       <c r="E4" s="92">
-        <f>'Spending data'!H2</f>
+        <f>'Spending data'!$H$2</f>
         <v>526335.20000000007</v>
       </c>
       <c r="F4" s="97">
         <f>E4/$E$32</f>
-        <v>1.5488206829085288E-3</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>143</v>
+        <v>1.2669127934744606E-3</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="I4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4">
+        <v>28.0291</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="90">
-        <f>'Spending data'!H10</f>
+        <f>'Spending data'!$H$10</f>
         <v>17.3</v>
       </c>
       <c r="D5" s="93">
@@ -31989,23 +30799,28 @@
         <v>11409</v>
       </c>
       <c r="E5" s="92">
-        <f>'Spending data'!H9</f>
+        <f>'Spending data'!$H$9</f>
         <v>197375.7</v>
       </c>
       <c r="F5" s="97">
         <f>E5/$E$32</f>
-        <v>5.8080775609069832E-4</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>144</v>
+        <v>4.7509229755292271E-4</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="13">
+        <f>J3*J4</f>
+        <v>12893386000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="90">
-        <f>'Spending data'!H17</f>
+        <f>'Spending data'!$H$17</f>
         <v>17.3</v>
       </c>
       <c r="D6" s="93">
@@ -32013,20 +30828,24 @@
         <v>3803.0000000000005</v>
       </c>
       <c r="E6" s="92">
-        <f>'Spending data'!H16</f>
+        <f>'Spending data'!$H$16</f>
         <v>65791.900000000009</v>
       </c>
       <c r="F6" s="97">
         <f>E6/$E$32</f>
-        <v>1.936025853635661E-4</v>
-      </c>
-      <c r="G6" s="19" t="s">
+        <v>1.5836409918430758E-4</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="I6" t="s">
         <v>145</v>
       </c>
+      <c r="J6" s="13">
+        <v>1438948</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="98" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="102"/>
@@ -32037,16 +30856,22 @@
       </c>
       <c r="F7" s="101">
         <f>SUM(F8:F8)</f>
-        <v>9.8402241834597416E-4</v>
+        <v>8.0491602715885159E-4</v>
       </c>
       <c r="G7" s="19"/>
+      <c r="I7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="13">
+        <v>44657704</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="90">
-        <f>'Spending data'!H24</f>
+        <f>'Spending data'!$H$24</f>
         <v>100</v>
       </c>
       <c r="D8" s="93">
@@ -32054,18 +30879,23 @@
         <v>3344</v>
       </c>
       <c r="E8" s="92">
-        <f>'Spending data'!H23</f>
+        <f>'Spending data'!$H$23</f>
         <v>334400</v>
       </c>
       <c r="F8" s="97">
         <f>E8/$E$32</f>
-        <v>9.8402241834597416E-4</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>77</v>
+        <v>8.0491602715885159E-4</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="121">
+        <f>J6/J7</f>
+        <v>3.2221719235722465E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="98" t="s">
         <v>45</v>
       </c>
@@ -32074,17 +30904,24 @@
       <c r="D9" s="103"/>
       <c r="E9" s="100">
         <f>SUM(E10:E13)</f>
-        <v>2782463.4826993197</v>
+        <v>2914808.5779519277</v>
       </c>
       <c r="F9" s="101">
         <f>SUM(F10:F13)</f>
-        <v>8.1878183170010343E-3</v>
+        <v>7.0160769751603088E-3</v>
       </c>
       <c r="G9" s="19"/>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="110">
+        <f>J8*J5</f>
+        <v>415447063.68979472</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C10" s="90">
         <v>327.27999999999997</v>
@@ -32099,13 +30936,18 @@
       </c>
       <c r="F10" s="97">
         <f t="shared" ref="F10:F28" si="0">E10/$E$32</f>
-        <v>2.9758886015719961E-3</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>84</v>
+        <v>2.434233596497656E-3</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="I10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="110">
+        <f>J9/J4</f>
+        <v>14821990.848432334</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>73</v>
       </c>
@@ -32122,13 +30964,11 @@
       </c>
       <c r="F11" s="97">
         <f t="shared" si="0"/>
-        <v>5.0010349879754277E-3</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>83</v>
-      </c>
+        <v>4.0907738880277163E-3</v>
+      </c>
+      <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -32136,47 +30976,43 @@
         <v>151.52227120181405</v>
       </c>
       <c r="D12" s="93">
-        <f>'Spending data'!H41</f>
-        <v>258</v>
+        <f>'Spending data'!$H$41</f>
+        <v>734</v>
       </c>
       <c r="E12" s="92">
         <f>C12*D12</f>
-        <v>39092.745970068027</v>
+        <v>111217.34706213151</v>
       </c>
       <c r="F12" s="97">
         <f t="shared" si="0"/>
-        <v>1.1503629913053581E-4</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>78</v>
-      </c>
+        <v>2.6770521874520953E-4</v>
+      </c>
+      <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C13" s="90">
         <v>42.141703401360544</v>
       </c>
       <c r="D13" s="93">
-        <f>'Spending data'!H48</f>
-        <v>773</v>
+        <f>'Spending data'!$H$48</f>
+        <v>2202</v>
       </c>
       <c r="E13" s="92">
         <f>C13*D13</f>
-        <v>32575.5367292517</v>
+        <v>92796.030889795918</v>
       </c>
       <c r="F13" s="97">
         <f t="shared" si="0"/>
-        <v>9.5858428323075253E-5</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>78</v>
-      </c>
+        <v>2.2336427188972667E-4</v>
+      </c>
+      <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="98" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B14" s="98"/>
       <c r="C14" s="102"/>
@@ -32187,13 +31023,13 @@
       </c>
       <c r="F14" s="105">
         <f t="shared" si="0"/>
-        <v>0.98834350380596314</v>
+        <v>0.80845061222177572</v>
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C15" s="90">
         <v>902.5</v>
@@ -32208,15 +31044,13 @@
       </c>
       <c r="F15" s="97">
         <f t="shared" si="0"/>
-        <v>7.4396953703886062E-2</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>79</v>
-      </c>
+        <v>6.085562614387359E-2</v>
+      </c>
+      <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C16" s="90">
         <v>9382.44</v>
@@ -32230,15 +31064,13 @@
       </c>
       <c r="F16" s="97">
         <f t="shared" si="0"/>
-        <v>0.33258095701308665</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>80</v>
-      </c>
+        <v>0.2720463859732325</v>
+      </c>
+      <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C17" s="90">
         <v>1800</v>
@@ -32253,15 +31085,13 @@
       </c>
       <c r="F17" s="97">
         <f t="shared" si="0"/>
-        <v>0.12711343319531199</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>79</v>
-      </c>
+        <v>0.10397693969012733</v>
+      </c>
+      <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C18" s="90">
         <v>8352</v>
@@ -32275,15 +31105,13 @@
       </c>
       <c r="F18" s="97">
         <f t="shared" si="0"/>
-        <v>0.29605477391523949</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>80</v>
-      </c>
+        <v>0.24216849941469784</v>
+      </c>
+      <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="94">
@@ -32296,18 +31124,15 @@
       </c>
       <c r="F19" s="97">
         <f t="shared" si="0"/>
-        <v>0.15819738597843896</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>142</v>
+        <v>0.12940316099984459</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="89" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C20" s="91">
-        <f>Monitoring!J37</f>
+        <f>Monitoring!$J$37</f>
         <v>644.2613238095239</v>
       </c>
       <c r="D20" s="96">
@@ -32320,15 +31145,15 @@
       </c>
       <c r="F20" s="97">
         <f t="shared" si="0"/>
-        <v>2.3196908634864765E-3</v>
+        <v>1.8974733901008991E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="89" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C21" s="91">
-        <f>Monitoring!J39</f>
+        <f>Monitoring!$J$39</f>
         <v>744.2613238095239</v>
       </c>
       <c r="D21" s="96">
@@ -32341,20 +31166,16 @@
       </c>
       <c r="F21" s="97">
         <f t="shared" si="0"/>
-        <v>6.0800336903630925E-3</v>
-      </c>
-      <c r="G21" s="12">
-        <f>D16*2/3</f>
-        <v>8030.666666666667</v>
+        <v>4.9733791342529872E-3</v>
       </c>
       <c r="H21" s="93">
         <f>27998*10/70</f>
         <v>3999.7142857142858</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" s="119">
+        <v>138</v>
+      </c>
+      <c r="J21" s="111">
         <f>H21/$H$24</f>
         <v>9.988298585841289E-2</v>
       </c>
@@ -32363,12 +31184,12 @@
         <v>28831.68</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" s="89" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C22" s="91">
-        <f>Monitoring!K37</f>
+        <f>Monitoring!$K$37</f>
         <v>673.94638458049894</v>
       </c>
       <c r="D22" s="96">
@@ -32381,26 +31202,26 @@
       </c>
       <c r="F22" s="97">
         <f t="shared" si="0"/>
-        <v>1.4559439280449471E-2</v>
+        <v>1.1909409587414063E-2</v>
       </c>
       <c r="H22" s="93">
         <f>27998*60/70</f>
         <v>23998.285714285714</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" s="119">
+        <v>140</v>
+      </c>
+      <c r="J22" s="111">
         <f>H22/$H$24</f>
         <v>0.59929791515047737</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="89" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C23" s="91">
-        <f>Monitoring!K39</f>
+        <f>Monitoring!$K$39</f>
         <v>1390.7116653061225</v>
       </c>
       <c r="D23" s="96">
@@ -32413,26 +31234,26 @@
       </c>
       <c r="F23" s="97">
         <f t="shared" si="0"/>
-        <v>6.8166168318639017E-2</v>
+        <v>5.5758934315650259E-2</v>
       </c>
       <c r="H23" s="94">
         <f>D16</f>
         <v>12046</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
-      </c>
-      <c r="J23" s="119">
+        <v>139</v>
+      </c>
+      <c r="J23" s="111">
         <f>H23/$H$24</f>
         <v>0.30081909899110976</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" s="89" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C24" s="91">
-        <f>Monitoring!O37</f>
+        <f>Monitoring!$O$37</f>
         <v>1288.5226476190478</v>
       </c>
       <c r="D24" s="96">
@@ -32444,19 +31265,19 @@
       </c>
       <c r="F24" s="97">
         <f t="shared" si="0"/>
-        <v>1.059772369973448E-2</v>
+        <v>8.6687838592700728E-3</v>
       </c>
       <c r="H24" s="94">
         <f>SUM(H21:H23)</f>
         <v>40044</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="89" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C25" s="91">
-        <f>Monitoring!O39</f>
+        <f>Monitoring!$O$39</f>
         <v>2074.7732090702948</v>
       </c>
       <c r="D25" s="96">
@@ -32468,12 +31289,12 @@
       </c>
       <c r="F25" s="97">
         <f t="shared" si="0"/>
-        <v>5.6474330125766435E-2</v>
+        <v>4.61951807131563E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="98" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B26" s="106"/>
       <c r="C26" s="107"/>
@@ -32484,10 +31305,10 @@
       </c>
       <c r="F26" s="105">
         <f t="shared" si="0"/>
-        <v>1.6142443432699049E-4</v>
+        <v>1.3204283961665059E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>71</v>
       </c>
@@ -32499,18 +31320,16 @@
         <v>2338.9589851151177</v>
       </c>
       <c r="E27" s="92">
-        <f>'Spending data'!H51</f>
+        <f>'Spending data'!$H$51</f>
         <v>37868.410000000003</v>
       </c>
       <c r="F27" s="97">
         <f t="shared" si="0"/>
-        <v>1.1143350594233515E-4</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>82</v>
-      </c>
+        <v>9.1150987236909484E-5</v>
+      </c>
+      <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>72</v>
       </c>
@@ -32522,55 +31341,615 @@
         <v>1170.1768974901722</v>
       </c>
       <c r="E28" s="92">
-        <f>'Spending data'!H58</f>
+        <f>'Spending data'!$H$58</f>
         <v>16988.399999999998</v>
       </c>
       <c r="F28" s="97">
         <f t="shared" si="0"/>
-        <v>4.999092838465534E-5</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>81</v>
-      </c>
+        <v>4.0891852379741129E-5</v>
+      </c>
+      <c r="G28" s="19"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="B32" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="94">
-        <f>SUMIFS(E3:E28,A3:A28,"&lt;&gt;")</f>
-        <v>339829656.078453</v>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="109">
+        <f>SUM(E30:E31)</f>
+        <v>75485062.516089171</v>
+      </c>
+      <c r="F29" s="105">
+        <f t="shared" ref="F29:F31" si="2">E29/$E$32</f>
+        <v>0.18169598274607668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="90"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="92">
+        <f>20%*SUM(E3,E7,E9,E14,E26)</f>
+        <v>67992400.234741122</v>
+      </c>
+      <c r="F30" s="97">
+        <f t="shared" si="2"/>
+        <v>0.16366080345078465</v>
+      </c>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="90"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="92">
+        <f>J9-SUM(E3,E7,E9,E14,E26,E30)</f>
+        <v>7492662.2813480496</v>
+      </c>
+      <c r="F31" s="97">
+        <f t="shared" si="2"/>
+        <v>1.8035179295292015E-2</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="124">
+        <f>SUMIFS(E3:E31,A3:A31,"&lt;&gt;")</f>
+        <v>415447063.68979478</v>
       </c>
       <c r="F32" s="94"/>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="94">
-        <v>1247757.8570000001</v>
-      </c>
-      <c r="F33" s="20">
-        <f>E32/E33</f>
-        <v>272.35224701009673</v>
-      </c>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="94"/>
+      <c r="F33" s="20"/>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="94">
-        <v>65394</v>
-      </c>
-      <c r="F34" s="20">
-        <f>E32/E34</f>
-        <v>5196.6488680682178</v>
-      </c>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="94"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100">
+        <f>SUM(D37:D39)</f>
+        <v>45636</v>
+      </c>
+      <c r="E36" s="100">
+        <f>SUM(E37:E39)</f>
+        <v>789502.80000000016</v>
+      </c>
+      <c r="F36" s="101">
+        <f>SUM(F37:F39)</f>
+        <v>1.9003691902116909E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="90">
+        <f>'Spending data'!$H$3</f>
+        <v>17.3</v>
+      </c>
+      <c r="D37" s="93">
+        <f>E37/C37</f>
+        <v>30424.000000000004</v>
+      </c>
+      <c r="E37" s="92">
+        <f>'Spending data'!$H$2</f>
+        <v>526335.20000000007</v>
+      </c>
+      <c r="F37" s="97">
+        <f>E37/$E$32</f>
+        <v>1.2669127934744606E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="90">
+        <f>'Spending data'!$H$10</f>
+        <v>17.3</v>
+      </c>
+      <c r="D38" s="93">
+        <f>E38/C38</f>
+        <v>11409</v>
+      </c>
+      <c r="E38" s="92">
+        <f>'Spending data'!$H$9</f>
+        <v>197375.7</v>
+      </c>
+      <c r="F38" s="97">
+        <f>E38/$E$32</f>
+        <v>4.7509229755292271E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="90">
+        <f>'Spending data'!$H$17</f>
+        <v>17.3</v>
+      </c>
+      <c r="D39" s="93">
+        <f>E39/C39</f>
+        <v>3803.0000000000005</v>
+      </c>
+      <c r="E39" s="92">
+        <f>'Spending data'!$H$16</f>
+        <v>65791.900000000009</v>
+      </c>
+      <c r="F39" s="97">
+        <f>E39/$E$32</f>
+        <v>1.5836409918430758E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="98"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="100">
+        <f>SUM(D41:D41)</f>
+        <v>3344</v>
+      </c>
+      <c r="E40" s="100">
+        <f>SUM(E41:E41)</f>
+        <v>334400</v>
+      </c>
+      <c r="F40" s="101">
+        <f>SUM(F41:F41)</f>
+        <v>8.0491602715885159E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="90">
+        <f>'Spending data'!$H$24</f>
+        <v>100</v>
+      </c>
+      <c r="D41" s="93">
+        <f>E41/C41</f>
+        <v>3344</v>
+      </c>
+      <c r="E41" s="92">
+        <f>'Spending data'!$H$23</f>
+        <v>334400</v>
+      </c>
+      <c r="F41" s="97">
+        <f>E41/$E$32</f>
+        <v>8.0491602715885159E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="98"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="103">
+        <f>D43</f>
+        <v>3090</v>
+      </c>
+      <c r="E42" s="100">
+        <f>SUM(E43:E45)</f>
+        <v>1215308.5779519274</v>
+      </c>
+      <c r="F42" s="101">
+        <f>SUM(F43:F45)</f>
+        <v>2.9253030871325921E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="90">
+        <v>327.27999999999997</v>
+      </c>
+      <c r="D43" s="93">
+        <f>'#ignore - misc calcs'!$B$4</f>
+        <v>3090</v>
+      </c>
+      <c r="E43" s="92">
+        <f>C43*D43</f>
+        <v>1011295.2</v>
+      </c>
+      <c r="F43" s="97">
+        <f t="shared" ref="F43:F61" si="3">E43/$E$32</f>
+        <v>2.434233596497656E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="90">
+        <v>151.52227120181405</v>
+      </c>
+      <c r="D44" s="93">
+        <f>'Spending data'!$H$41</f>
+        <v>734</v>
+      </c>
+      <c r="E44" s="92">
+        <f>C44*D44</f>
+        <v>111217.34706213151</v>
+      </c>
+      <c r="F44" s="97">
+        <f t="shared" si="3"/>
+        <v>2.6770521874520953E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="90">
+        <v>42.141703401360544</v>
+      </c>
+      <c r="D45" s="93">
+        <f>'Spending data'!$H$48</f>
+        <v>2202</v>
+      </c>
+      <c r="E45" s="92">
+        <f>C45*D45</f>
+        <v>92796.030889795918</v>
+      </c>
+      <c r="F45" s="97">
+        <f t="shared" si="3"/>
+        <v>2.2336427188972667E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="98"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103">
+        <f>D49</f>
+        <v>40043</v>
+      </c>
+      <c r="E46" s="104">
+        <f>SUM(E47:E49)</f>
+        <v>192063326.70003939</v>
+      </c>
+      <c r="F46" s="105">
+        <f t="shared" si="3"/>
+        <v>0.46230517311695063</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="90">
+        <v>902.5</v>
+      </c>
+      <c r="D47" s="93">
+        <f>27998*60/70+12046*1/3</f>
+        <v>28013.619047619046</v>
+      </c>
+      <c r="E47" s="92">
+        <f>C47*D47</f>
+        <v>25282291.19047619</v>
+      </c>
+      <c r="F47" s="97">
+        <f t="shared" si="3"/>
+        <v>6.085562614387359E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="90">
+        <v>9382.44</v>
+      </c>
+      <c r="D48" s="93">
+        <v>12046</v>
+      </c>
+      <c r="E48" s="92">
+        <f>C48*D48</f>
+        <v>113020872.24000001</v>
+      </c>
+      <c r="F48" s="97">
+        <f t="shared" si="3"/>
+        <v>0.2720463859732325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="90"/>
+      <c r="D49" s="94">
+        <f>SUM(D50:D55)</f>
+        <v>40043</v>
+      </c>
+      <c r="E49" s="92">
+        <f>SUM(E50:E55)</f>
+        <v>53760163.269563198</v>
+      </c>
+      <c r="F49" s="97">
+        <f t="shared" si="3"/>
+        <v>0.12940316099984459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="91">
+        <f>Monitoring!$J$37</f>
+        <v>644.2613238095239</v>
+      </c>
+      <c r="D50" s="96">
+        <f>8565*10/70</f>
+        <v>1223.5714285714287</v>
+      </c>
+      <c r="E50" s="95">
+        <f t="shared" ref="E50:E55" si="4">C50*D50</f>
+        <v>788299.74834693898</v>
+      </c>
+      <c r="F50" s="97">
+        <f t="shared" si="3"/>
+        <v>1.8974733901008991E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="91">
+        <f>Monitoring!$J$39</f>
+        <v>744.2613238095239</v>
+      </c>
+      <c r="D51" s="96">
+        <f>19433*10/70</f>
+        <v>2776.1428571428573</v>
+      </c>
+      <c r="E51" s="95">
+        <f t="shared" si="4"/>
+        <v>2066175.757941497</v>
+      </c>
+      <c r="F51" s="97">
+        <f t="shared" si="3"/>
+        <v>4.9733791342529872E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="91">
+        <f>Monitoring!$K$37</f>
+        <v>673.94638458049894</v>
+      </c>
+      <c r="D52" s="96">
+        <f>8565*60/70</f>
+        <v>7341.4285714285716</v>
+      </c>
+      <c r="E52" s="95">
+        <f t="shared" si="4"/>
+        <v>4947729.2433702629</v>
+      </c>
+      <c r="F52" s="97">
+        <f t="shared" si="3"/>
+        <v>1.1909409587414063E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="91">
+        <f>Monitoring!$K$39</f>
+        <v>1390.7116653061225</v>
+      </c>
+      <c r="D53" s="96">
+        <f>19433*60/70</f>
+        <v>16656.857142857141</v>
+      </c>
+      <c r="E53" s="95">
+        <f t="shared" si="4"/>
+        <v>23164885.535909038</v>
+      </c>
+      <c r="F53" s="97">
+        <f t="shared" si="3"/>
+        <v>5.5758934315650259E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="91">
+        <f>Monitoring!$O$37</f>
+        <v>1288.5226476190478</v>
+      </c>
+      <c r="D54" s="96">
+        <v>2795</v>
+      </c>
+      <c r="E54" s="95">
+        <f t="shared" si="4"/>
+        <v>3601420.8000952387</v>
+      </c>
+      <c r="F54" s="97">
+        <f t="shared" si="3"/>
+        <v>8.6687838592700728E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="91">
+        <f>Monitoring!$O$39</f>
+        <v>2074.7732090702948</v>
+      </c>
+      <c r="D55" s="96">
+        <v>9250</v>
+      </c>
+      <c r="E55" s="95">
+        <f t="shared" si="4"/>
+        <v>19191652.183900226</v>
+      </c>
+      <c r="F55" s="97">
+        <f t="shared" si="3"/>
+        <v>4.61951807131563E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="106"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="109">
+        <f>SUM(E57:E58)</f>
+        <v>54856.81</v>
+      </c>
+      <c r="F56" s="105">
+        <f t="shared" si="3"/>
+        <v>1.3204283961665059E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="90">
+        <v>16.190283900226756</v>
+      </c>
+      <c r="D57" s="93">
+        <f>E57/C57</f>
+        <v>2338.9589851151177</v>
+      </c>
+      <c r="E57" s="92">
+        <f>'Spending data'!$H$51</f>
+        <v>37868.410000000003</v>
+      </c>
+      <c r="F57" s="97">
+        <f t="shared" si="3"/>
+        <v>9.1150987236909484E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="90">
+        <v>14.517804988662132</v>
+      </c>
+      <c r="D58" s="93">
+        <f>E58/C58</f>
+        <v>1170.1768974901722</v>
+      </c>
+      <c r="E58" s="92">
+        <f>'Spending data'!$H$58</f>
+        <v>16988.399999999998</v>
+      </c>
+      <c r="F58" s="97">
+        <f t="shared" si="3"/>
+        <v>4.0891852379741129E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="106"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="109">
+        <f>SUM(E60:E61)</f>
+        <v>220989668.80180341</v>
+      </c>
+      <c r="F59" s="105">
+        <f t="shared" si="3"/>
+        <v>0.53193219573892947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="90"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="92">
+        <f>20%*SUM(E36,E40,E42,E46,E56)</f>
+        <v>38891478.977598265</v>
+      </c>
+      <c r="F60" s="97">
+        <f t="shared" si="3"/>
+        <v>9.3613560852214089E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="90"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="92">
+        <f>J9-SUM(E36,E40,E42,E46,E56,E60)</f>
+        <v>182098189.82420516</v>
+      </c>
+      <c r="F61" s="97">
+        <f t="shared" si="3"/>
+        <v>0.43831863488671541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="124">
+        <f>SUMIFS(E36:E61,A36:A61,"&lt;&gt;")</f>
+        <v>415447063.68979472</v>
+      </c>
+      <c r="F62" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32582,7 +31961,7 @@
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="21" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="21" customWidth="1"/>
@@ -33610,121 +32989,121 @@
     <col min="16147" max="16384" width="5.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C1" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="116" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
+    <row r="1" spans="1:19" s="86" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
       <c r="Q1" s="87"/>
       <c r="R1" s="29"/>
     </row>
-    <row r="2" spans="1:19">
-      <c r="C2" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="118" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C2" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="85"/>
       <c r="C3" s="84" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H3" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="115"/>
+        <v>110</v>
+      </c>
+      <c r="I3" s="116"/>
       <c r="J3" s="84" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K3" s="83" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L3" s="82" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M3" s="81" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="N3" s="80" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O3" s="79" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="74"/>
       <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="78" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I4" s="77" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K4" s="75">
         <f>'[4]Ingredients costs'!K22</f>
@@ -33740,7 +33119,7 @@
       <c r="Q4" s="74"/>
       <c r="R4" s="74"/>
     </row>
-    <row r="5" spans="1:19" ht="8.25" customHeight="1">
+    <row r="5" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="73"/>
       <c r="B5" s="73"/>
       <c r="C5" s="45"/>
@@ -33757,12 +33136,12 @@
       <c r="N5" s="49"/>
       <c r="O5" s="49"/>
     </row>
-    <row r="6" spans="1:19" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="111" t="s">
-        <v>116</v>
+    <row r="6" spans="1:19" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="112" t="s">
+        <v>107</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -33787,15 +33166,15 @@
         <v>45.158987755102039</v>
       </c>
       <c r="Q6" s="53" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="R6" s="53"/>
       <c r="S6" s="52"/>
     </row>
-    <row r="7" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A7" s="111"/>
+    <row r="7" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="112"/>
       <c r="B7" s="33" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C7" s="51">
         <v>1</v>
@@ -33831,10 +33210,10 @@
       <c r="Q7" s="71"/>
       <c r="R7" s="71"/>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="111"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="112"/>
       <c r="B8" s="33" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C8" s="51">
         <v>1</v>
@@ -33870,10 +33249,10 @@
       <c r="Q8" s="71"/>
       <c r="R8" s="71"/>
     </row>
-    <row r="9" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A9" s="111"/>
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="112"/>
       <c r="B9" s="55" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -33898,15 +33277,15 @@
         <v>31.764520634920633</v>
       </c>
       <c r="Q9" s="53" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R9" s="53"/>
       <c r="S9" s="52"/>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="112"/>
       <c r="B10" s="33" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C10" s="51">
         <v>1</v>
@@ -33940,10 +33319,10 @@
         <v>24.76851156462585</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="112"/>
       <c r="B11" s="33" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C11" s="51">
         <v>1</v>
@@ -33977,10 +33356,10 @@
         <v>6.9960090702947832</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A12" s="111"/>
+    <row r="12" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="112"/>
       <c r="B12" s="33" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C12" s="47">
         <v>1</v>
@@ -34014,13 +33393,13 @@
         <v>654.55999999999995</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="112"/>
       <c r="B13" s="33" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C13" s="47">
         <v>2</v>
@@ -34054,10 +33433,10 @@
         <v>69.203219954648517</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="112"/>
       <c r="B14" s="48" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C14" s="47">
         <v>0</v>
@@ -34091,14 +33470,14 @@
         <v>0</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="R14" s="67"/>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="112"/>
       <c r="B15" s="33" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C15" s="47">
         <v>1</v>
@@ -34132,14 +33511,14 @@
         <v>220</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R15" s="67"/>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="111"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="112"/>
       <c r="B16" s="33" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C16" s="47">
         <v>1</v>
@@ -34173,14 +33552,14 @@
         <v>265.92721995464854</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="R16" s="67"/>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="111"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="112"/>
       <c r="B17" s="48" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C17" s="47">
         <v>1</v>
@@ -34215,10 +33594,10 @@
       </c>
       <c r="R17" s="66"/>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="112"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="113"/>
       <c r="B18" s="33" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -34243,10 +33622,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="6.75" customHeight="1">
+    <row r="19" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="60"/>
@@ -34263,12 +33642,12 @@
       <c r="N19" s="58"/>
       <c r="O19" s="49"/>
     </row>
-    <row r="20" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A20" s="113" t="s">
-        <v>113</v>
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="114" t="s">
+        <v>104</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -34293,15 +33672,15 @@
         <v>69.927499319727886</v>
       </c>
       <c r="Q20" s="53" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="R20" s="53"/>
       <c r="S20" s="52"/>
     </row>
-    <row r="21" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A21" s="113"/>
+    <row r="21" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="114"/>
       <c r="B21" s="33" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C21" s="51">
         <v>1</v>
@@ -34335,10 +33714,10 @@
         <v>20.390476190476189</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A22" s="113"/>
+    <row r="22" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="114"/>
       <c r="B22" s="33" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C22" s="51">
         <v>1</v>
@@ -34372,10 +33751,10 @@
         <v>49.5370231292517</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A23" s="113"/>
+    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="114"/>
       <c r="B23" s="55" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -34400,15 +33779,15 @@
         <v>63.529041269841265</v>
       </c>
       <c r="Q23" s="53" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R23" s="53"/>
       <c r="S23" s="52"/>
     </row>
-    <row r="24" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A24" s="113"/>
+    <row r="24" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="114"/>
       <c r="B24" s="33" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C24" s="51">
         <v>1</v>
@@ -34442,10 +33821,10 @@
         <v>49.5370231292517</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A25" s="113"/>
+    <row r="25" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="114"/>
       <c r="B25" s="33" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C25" s="51">
         <v>1</v>
@@ -34479,10 +33858,10 @@
         <v>13.992018140589566</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="24" customHeight="1">
-      <c r="A26" s="113"/>
+    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="114"/>
       <c r="B26" s="33" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C26" s="47">
         <v>1</v>
@@ -34516,13 +33895,13 @@
         <v>981.83999999999992</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="113"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" s="114"/>
       <c r="B27" s="33" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C27" s="47">
         <v>2</v>
@@ -34556,10 +33935,10 @@
         <v>103.80482993197278</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="113"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="114"/>
       <c r="B28" s="48" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C28" s="47">
         <v>1</v>
@@ -34593,13 +33972,13 @@
         <v>100</v>
       </c>
       <c r="Q28" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="113"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" s="114"/>
       <c r="B29" s="33" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C29" s="47">
         <v>1</v>
@@ -34633,13 +34012,13 @@
         <v>220</v>
       </c>
       <c r="Q29" s="22" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="113"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" s="114"/>
       <c r="B30" s="33" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C30" s="47">
         <v>1</v>
@@ -34673,13 +34052,13 @@
         <v>531.85443990929707</v>
       </c>
       <c r="Q30" s="22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="113"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" s="114"/>
       <c r="B31" s="48" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C31" s="47">
         <v>1</v>
@@ -34713,22 +34092,22 @@
         <v>67.346439909297047</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="36" customFormat="1" ht="33">
-      <c r="A32" s="113"/>
+    <row r="32" spans="1:19" s="36" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A32" s="114"/>
       <c r="B32" s="43" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="40" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I32" s="39"/>
       <c r="J32" s="30"/>
@@ -34740,10 +34119,10 @@
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="113"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="114"/>
       <c r="B33" s="33" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="34"/>
@@ -34768,30 +34147,30 @@
         <v>0</v>
       </c>
       <c r="Q33" s="26" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R34" s="29"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B35" s="28" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="27"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B36" s="26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Q36" s="26"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B37" s="26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J37" s="88">
         <f>SUM(J6,J12:J13,J15:J17)</f>
@@ -34806,12 +34185,12 @@
         <v>1288.5226476190478</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B38" s="25" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J38" s="88">
         <f>SUM(J9,J12:J13,J15:J17)</f>
@@ -34826,9 +34205,9 @@
         <v>1275.1281804988662</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I39" s="21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J39" s="88">
         <f>SUM(J20,J26:J31)</f>
@@ -34843,9 +34222,9 @@
         <v>2074.7732090702948</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I40" s="21" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J40" s="88">
         <f>SUM(J23,J26:J31)</f>
@@ -34860,10 +34239,10 @@
         <v>2068.374751020408</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J42" s="24"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J45" s="23"/>
     </row>
   </sheetData>

--- a/t2dm-poltava/t2dm_poltava_progbook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_progbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF401DFB-B619-BB4E-AF51-7A913DAFAB03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3750C2D2-CEE5-1041-920A-6B4F073C3AB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25340" windowHeight="16540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25340" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <definedName name="table_ScenarioOffset">[1]Lists!$D$3:$E$5</definedName>
     <definedName name="TB_incidence_rate">'[1]Infection control'!$E$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t>Screening scale factor</t>
-  </si>
-  <si>
-    <t>(unsc_uncomp+unsc_vd)/(unsc_uncomp+unsc_vd+sus)</t>
   </si>
   <si>
     <t>Estimated screening coverage denominator 2016</t>
@@ -753,6 +750,9 @@
   <si>
     <t>Total desired Poltava spend (USD)</t>
   </si>
+  <si>
+    <t>Number screened positive in 2016</t>
+  </si>
 </sst>
 </file>
 
@@ -764,9 +764,9 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _k_r_._-;\-* #,##0.000\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;???\ _k_r_._-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,7 +1069,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1339,6 +1339,17 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1363,17 +1374,8 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3956,985 +3958,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-5D12-4F4C-BADF-E33D3E1D8C30}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5D12-4F4C-BADF-E33D3E1D8C30}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-5D12-4F4C-BADF-E33D3E1D8C30}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-5D12-4F4C-BADF-E33D3E1D8C30}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-5D12-4F4C-BADF-E33D3E1D8C30}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-5D12-4F4C-BADF-E33D3E1D8C30}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-5D12-4F4C-BADF-E33D3E1D8C30}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-5D12-4F4C-BADF-E33D3E1D8C30}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-5D12-4F4C-BADF-E33D3E1D8C30}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#ignore - misc calcs'!$C$8:$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Blood glucose test (PHC level)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Blood glucose test (Feldsher post family nurse)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Blood glucose test (outreach/community-based)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Confirmatory test</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Initiation</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Initiation counselling - patient schools</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Initiation counselling - PHC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Advanced adherence counselling - PHC</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Advanced adherence counselling - family nurse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#ignore - misc calcs'!$B$8:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #.##0\ _k_r_._-;\-* #.##0\ _k_r_._-;_-* "-"??\ _k_r_._-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>526335.20000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>197375.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65791.900000000009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>334400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50728.399999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>351439.19999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>813462.84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37868.410000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16988.399999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-29CD-5143-B4BB-1B546F6DD5C1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF740602-06B6-074E-9D36-1587830254F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -25843,11 +24866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
@@ -25855,7 +24878,7 @@
     <col min="5" max="15" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25863,7 +24886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="48">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -25907,7 +24930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -25951,7 +24974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -25995,7 +25018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -26039,7 +25062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -26083,7 +25106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -26127,7 +25150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -26171,7 +25194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -26215,7 +25238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -26259,7 +25282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -26852,11 +25875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.83203125" customWidth="1"/>
@@ -26864,7 +25887,7 @@
     <col min="5" max="5" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Blood glucose test (PHC level)</v>
@@ -26892,7 +25915,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -26912,7 +25935,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -26931,7 +25954,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -26948,7 +25971,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -26965,7 +25988,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -26985,7 +26008,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Blood glucose test (Feldsher post family nurse)</v>
@@ -27013,7 +26036,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -27033,7 +26056,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -27052,7 +26075,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -27069,7 +26092,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -27086,7 +26109,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -27106,7 +26129,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Blood glucose test (outreach/community-based)</v>
@@ -27134,7 +26157,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -27154,7 +26177,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -27173,7 +26196,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -27190,7 +26213,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -27207,7 +26230,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -27227,7 +26250,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test</v>
@@ -27255,7 +26278,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -27275,7 +26298,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -27294,7 +26317,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -27311,7 +26334,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -27328,7 +26351,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -27348,7 +26371,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Initiation</v>
@@ -27376,7 +26399,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -27396,7 +26419,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -27416,7 +26439,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -27433,7 +26456,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -27450,7 +26473,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -27470,7 +26493,7 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Initiation counselling - patient schools</v>
@@ -27498,7 +26521,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -27518,7 +26541,7 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
@@ -27538,7 +26561,7 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -27555,7 +26578,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
@@ -27572,7 +26595,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -27592,7 +26615,7 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Initiation counselling - PHC</v>
@@ -27620,7 +26643,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
@@ -27640,7 +26663,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
@@ -27660,7 +26683,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
         <v>30</v>
       </c>
@@ -27677,7 +26700,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -27694,7 +26717,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
@@ -27714,7 +26737,7 @@
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Advanced adherence counselling - PHC</v>
@@ -27742,7 +26765,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -27762,7 +26785,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
@@ -27781,7 +26804,7 @@
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -27798,7 +26821,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
         <v>32</v>
       </c>
@@ -27815,7 +26838,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
@@ -27835,7 +26858,7 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Advanced adherence counselling - family nurse</v>
@@ -27863,7 +26886,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -27883,7 +26906,7 @@
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
         <v>28</v>
       </c>
@@ -27902,7 +26925,7 @@
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
@@ -27919,7 +26942,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
         <v>32</v>
       </c>
@@ -27936,7 +26959,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -28332,10 +27355,10 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.83203125" customWidth="1"/>
@@ -28343,7 +27366,7 @@
     <col min="7" max="15" width="15.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="64">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -28396,7 +27419,7 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -28410,15 +27433,15 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="17">
-        <f>'#ignore - misc calcs'!$B$23</f>
+        <f>'#ignore - misc calcs'!$B$12</f>
         <v>6.85</v>
       </c>
       <c r="H2" s="17">
-        <f>'#ignore - misc calcs'!$B$24</f>
+        <f>'#ignore - misc calcs'!$B$13</f>
         <v>6.85</v>
       </c>
       <c r="I2" s="17">
-        <f>'#ignore - misc calcs'!$B$25</f>
+        <f>'#ignore - misc calcs'!$B$14</f>
         <v>8</v>
       </c>
       <c r="J2" s="9"/>
@@ -28428,7 +27451,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="64">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -28481,7 +27504,7 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -28506,7 +27529,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="64">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -28559,7 +27582,7 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -28588,7 +27611,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="10" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="64">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -28641,7 +27664,7 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -28668,7 +27691,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="13" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="64">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -28721,7 +27744,7 @@
         <v>Advanced adherence counselling - family nurse</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -30415,29 +29438,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98FCFE-F49E-A043-ADE3-386E72782E8F}">
-  <dimension ref="B1:M32"/>
+  <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="168" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="110">
+    <row r="1" spans="2:6">
+      <c r="B1" s="13">
         <f>B2*8%</f>
         <v>3650.88</v>
       </c>
-      <c r="C1" s="110">
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="110">
         <f>B1*92%</f>
         <v>3358.8096</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6">
       <c r="B2" s="13">
         <v>45636</v>
       </c>
@@ -30448,7 +29475,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="13">
         <v>3344</v>
       </c>
@@ -30460,7 +29487,7 @@
         <v>3097.92</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" s="13">
         <v>3090</v>
       </c>
@@ -30468,7 +29495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="13">
         <v>29239</v>
       </c>
@@ -30476,7 +29503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -30484,224 +29511,133 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="13">
-        <f>'Spending data'!H2</f>
-        <v>526335.20000000007</v>
-      </c>
-      <c r="C8" t="str">
-        <f>'Program targeting'!A3</f>
-        <v>Blood glucose test (PHC level)</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="13">
-        <f>'Spending data'!H9</f>
-        <v>197375.7</v>
-      </c>
-      <c r="C9" t="str">
-        <f>'Program targeting'!A4</f>
-        <v>Blood glucose test (Feldsher post family nurse)</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="13">
-        <f>'Spending data'!H16</f>
-        <v>65791.900000000009</v>
-      </c>
-      <c r="C10" t="str">
-        <f>'Program targeting'!A5</f>
-        <v>Blood glucose test (outreach/community-based)</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="13">
-        <f>'Spending data'!H23</f>
-        <v>334400</v>
-      </c>
-      <c r="C11" t="str">
-        <f>'Program targeting'!A6</f>
-        <v>Confirmatory test</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="13">
-        <f>'Spending data'!H30</f>
-        <v>50728.399999999994</v>
-      </c>
-      <c r="C12" t="str">
-        <f>'Program targeting'!A7</f>
-        <v>Initiation</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="13">
-        <f>'Spending data'!H37</f>
-        <v>351439.19999999995</v>
-      </c>
-      <c r="C13" t="str">
-        <f>'Program targeting'!A8</f>
-        <v>Initiation counselling - patient schools</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="13">
-        <f>'Spending data'!H44</f>
-        <v>813462.84</v>
-      </c>
-      <c r="C14" t="str">
-        <f>'Program targeting'!A9</f>
-        <v>Initiation counselling - PHC</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="13">
-        <f>'Spending data'!H51</f>
-        <v>37868.410000000003</v>
-      </c>
-      <c r="C15" t="str">
-        <f>'Program targeting'!A10</f>
-        <v>Advanced adherence counselling - PHC</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="13">
-        <f>'Spending data'!H58</f>
-        <v>16988.399999999998</v>
-      </c>
-      <c r="C16" t="str">
-        <f>'Program targeting'!A11</f>
-        <v>Advanced adherence counselling - family nurse</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="13">
         <f>(1247757.857-52315)</f>
         <v>1195442.8570000001</v>
       </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="14">
+        <f>'Spending data'!H6/$B$8</f>
+        <v>2.5449982675332508E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="14">
+        <f>'Spending data'!H13/$B$8</f>
+        <v>9.5437435032496905E-3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="14">
+        <f>'Spending data'!H20/$B$8</f>
+        <v>3.1812478344165635E-3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="125">
+        <v>6.85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="125">
+        <f>B12</f>
+        <v>6.85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="125">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="15">
+        <f>B9*B12</f>
+        <v>0.17433238132602766</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="15">
+        <f>B10*B13</f>
+        <v>6.5374642997260382E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="15">
+        <f>B11*B14</f>
+        <v>2.5449982675332508E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="16">
+        <f>SUM(B15:B17)</f>
+        <v>0.26515700699862055</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="126">
+        <v>13733</v>
+      </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="14">
-        <f>'Spending data'!H6/$B$19</f>
-        <v>2.5449982675332508E-2</v>
+    <row r="20" spans="2:13">
+      <c r="B20" s="18">
+        <f>B19*B18</f>
+        <v>3641.4011771120558</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="14">
-        <f>'Spending data'!H13/$B$19</f>
-        <v>9.5437435032496905E-3</v>
+    <row r="21" spans="2:13">
+      <c r="B21" s="13">
+        <v>3650.88</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="14">
-        <f>'Spending data'!H20/$B$19</f>
-        <v>3.1812478344165635E-3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>6.85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <f>B23</f>
-        <v>6.85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="15">
-        <f>B20*'Program effects'!G2</f>
-        <v>0.17433238132602766</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="15">
-        <f>B21*'Program effects'!H2</f>
-        <v>6.5374642997260382E-2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="15">
-        <f>B22*'Program effects'!I2</f>
-        <v>2.5449982675332508E-2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="16">
-        <f>SUM(B26:B28)</f>
-        <v>0.26515700699862055</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="13">
-        <v>13733</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="18">
-        <f>B30*B29</f>
-        <v>3641.4011771120558</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="13">
-        <v>3650.88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
+    <row r="29" spans="2:13">
+      <c r="M29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30709,11 +29645,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7089B648-EE74-8145-9F25-536CEBA19B8C}">
   <dimension ref="A2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+    <sheetView zoomScale="97" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
@@ -30722,23 +29658,23 @@
     <col min="10" max="10" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
-        <v>141</v>
+    <row r="2" spans="1:10" ht="64">
+      <c r="A2" s="112" t="s">
+        <v>140</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="99"/>
@@ -30752,13 +29688,13 @@
         <v>1.9003691902116909E-3</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J3" s="13">
         <v>460000000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -30780,13 +29716,13 @@
       </c>
       <c r="G4" s="19"/>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4">
         <v>28.0291</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -30808,14 +29744,14 @@
       </c>
       <c r="G5" s="19"/>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J5" s="13">
         <f>J3*J4</f>
         <v>12893386000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -30837,15 +29773,15 @@
       </c>
       <c r="G6" s="19"/>
       <c r="I6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J6" s="13">
         <v>1438948</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="102"/>
@@ -30860,15 +29796,15 @@
       </c>
       <c r="G7" s="19"/>
       <c r="I7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="13">
         <v>44657704</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="90">
         <f>'Spending data'!$H$24</f>
@@ -30888,14 +29824,14 @@
       </c>
       <c r="G8" s="19"/>
       <c r="I8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" s="121">
+        <v>145</v>
+      </c>
+      <c r="J8" s="113">
         <f>J6/J7</f>
         <v>3.2221719235722465E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="98" t="s">
         <v>45</v>
       </c>
@@ -30912,16 +29848,16 @@
       </c>
       <c r="G9" s="19"/>
       <c r="I9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J9" s="110">
         <f>J8*J5</f>
         <v>415447063.68979472</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="90">
         <v>327.27999999999997</v>
@@ -30940,16 +29876,16 @@
       </c>
       <c r="G10" s="19"/>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J10" s="110">
         <f>J9/J4</f>
         <v>14821990.848432334</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="90">
         <v>550</v>
@@ -30968,9 +29904,9 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="90">
         <v>151.52227120181405</v>
@@ -30989,9 +29925,9 @@
       </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="90">
         <v>42.141703401360544</v>
@@ -31010,9 +29946,9 @@
       </c>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="98"/>
       <c r="C14" s="102"/>
@@ -31027,9 +29963,9 @@
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="90">
         <v>902.5</v>
@@ -31048,9 +29984,9 @@
       </c>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="90">
         <v>9382.44</v>
@@ -31068,9 +30004,9 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="90">
         <v>1800</v>
@@ -31089,9 +30025,9 @@
       </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="90">
         <v>8352</v>
@@ -31109,9 +30045,9 @@
       </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="94">
@@ -31127,9 +30063,9 @@
         <v>0.12940316099984459</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="B20" s="89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="91">
         <f>Monitoring!$J$37</f>
@@ -31148,9 +30084,9 @@
         <v>1.8974733901008991E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="B21" s="89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="91">
         <f>Monitoring!$J$39</f>
@@ -31173,7 +30109,7 @@
         <v>3999.7142857142858</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J21" s="111">
         <f>H21/$H$24</f>
@@ -31184,9 +30120,9 @@
         <v>28831.68</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="B22" s="89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="91">
         <f>Monitoring!$K$37</f>
@@ -31209,16 +30145,16 @@
         <v>23998.285714285714</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" s="111">
         <f>H22/$H$24</f>
         <v>0.59929791515047737</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="B23" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="91">
         <f>Monitoring!$K$39</f>
@@ -31241,16 +30177,16 @@
         <v>12046</v>
       </c>
       <c r="I23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J23" s="111">
         <f>H23/$H$24</f>
         <v>0.30081909899110976</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="B24" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="91">
         <f>Monitoring!$O$37</f>
@@ -31272,9 +30208,9 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="B25" s="89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="91">
         <f>Monitoring!$O$39</f>
@@ -31292,9 +30228,9 @@
         <v>4.61951807131563E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="106"/>
       <c r="C26" s="107"/>
@@ -31308,9 +30244,9 @@
         <v>1.3204283961665059E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="90">
         <v>16.190283900226756</v>
@@ -31329,9 +30265,9 @@
       </c>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="90">
         <v>14.517804988662132</v>
@@ -31350,9 +30286,9 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="106"/>
       <c r="C29" s="107"/>
@@ -31366,9 +30302,9 @@
         <v>0.18169598274607668</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="B30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="90"/>
       <c r="D30" s="93"/>
@@ -31382,9 +30318,9 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="B31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="90"/>
       <c r="D31" s="93"/>
@@ -31398,43 +30334,43 @@
       </c>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="124">
+    <row r="32" spans="1:12">
+      <c r="B32" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="116">
         <f>SUMIFS(E3:E31,A3:A31,"&lt;&gt;")</f>
         <v>415447063.68979478</v>
       </c>
       <c r="F32" s="94"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="E33" s="94"/>
       <c r="F33" s="20"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="E34" s="94"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="120" t="s">
-        <v>141</v>
+    <row r="35" spans="1:6" ht="64">
+      <c r="A35" s="112" t="s">
+        <v>140</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="98"/>
       <c r="C36" s="99"/>
@@ -31451,7 +30387,7 @@
         <v>1.9003691902116909E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="B37" t="s">
         <v>41</v>
       </c>
@@ -31472,7 +30408,7 @@
         <v>1.2669127934744606E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="B38" t="s">
         <v>42</v>
       </c>
@@ -31493,7 +30429,7 @@
         <v>4.7509229755292271E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="B39" t="s">
         <v>43</v>
       </c>
@@ -31514,9 +30450,9 @@
         <v>1.5836409918430758E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="98"/>
       <c r="C40" s="102"/>
@@ -31533,9 +30469,9 @@
         <v>8.0491602715885159E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="90">
         <f>'Spending data'!$H$24</f>
@@ -31554,7 +30490,7 @@
         <v>8.0491602715885159E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="98" t="s">
         <v>45</v>
       </c>
@@ -31573,9 +30509,9 @@
         <v>2.9253030871325921E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="B43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="90">
         <v>327.27999999999997</v>
@@ -31593,9 +30529,9 @@
         <v>2.434233596497656E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="90">
         <v>151.52227120181405</v>
@@ -31613,9 +30549,9 @@
         <v>2.6770521874520953E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="90">
         <v>42.141703401360544</v>
@@ -31633,9 +30569,9 @@
         <v>2.2336427188972667E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="98"/>
       <c r="C46" s="102"/>
@@ -31652,9 +30588,9 @@
         <v>0.46230517311695063</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="B47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="90">
         <v>902.5</v>
@@ -31672,9 +30608,9 @@
         <v>6.085562614387359E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="B48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="90">
         <v>9382.44</v>
@@ -31691,9 +30627,9 @@
         <v>0.2720463859732325</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="B49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="90"/>
       <c r="D49" s="94">
@@ -31709,9 +30645,9 @@
         <v>0.12940316099984459</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="B50" s="89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="91">
         <f>Monitoring!$J$37</f>
@@ -31730,9 +30666,9 @@
         <v>1.8974733901008991E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="B51" s="89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="91">
         <f>Monitoring!$J$39</f>
@@ -31751,9 +30687,9 @@
         <v>4.9733791342529872E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="B52" s="89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="91">
         <f>Monitoring!$K$37</f>
@@ -31772,9 +30708,9 @@
         <v>1.1909409587414063E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="B53" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="91">
         <f>Monitoring!$K$39</f>
@@ -31793,9 +30729,9 @@
         <v>5.5758934315650259E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="B54" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="91">
         <f>Monitoring!$O$37</f>
@@ -31813,9 +30749,9 @@
         <v>8.6687838592700728E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="B55" s="89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="91">
         <f>Monitoring!$O$39</f>
@@ -31833,9 +30769,9 @@
         <v>4.61951807131563E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56" s="106"/>
       <c r="C56" s="107"/>
@@ -31849,9 +30785,9 @@
         <v>1.3204283961665059E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="B57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="90">
         <v>16.190283900226756</v>
@@ -31869,9 +30805,9 @@
         <v>9.1150987236909484E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="B58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="90">
         <v>14.517804988662132</v>
@@ -31889,9 +30825,9 @@
         <v>4.0891852379741129E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="106"/>
       <c r="C59" s="107"/>
@@ -31905,9 +30841,9 @@
         <v>0.53193219573892947</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="B60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60" s="90"/>
       <c r="D60" s="93"/>
@@ -31920,9 +30856,9 @@
         <v>9.3613560852214089E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="B61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" s="90"/>
       <c r="D61" s="93"/>
@@ -31935,13 +30871,13 @@
         <v>0.43831863488671541</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="124">
+    <row r="62" spans="1:6">
+      <c r="B62" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="116">
         <f>SUMIFS(E36:E61,A36:A61,"&lt;&gt;")</f>
         <v>415447063.68979472</v>
       </c>
@@ -31961,7 +30897,7 @@
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4" style="21" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="21" customWidth="1"/>
@@ -32989,121 +31925,121 @@
     <col min="16147" max="16384" width="5.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="86" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="116" t="s">
+    <row r="1" spans="1:19" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C1" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="117" t="s">
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
+      <c r="J1" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
       <c r="Q1" s="87"/>
       <c r="R1" s="29"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C2" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119" t="s">
+    <row r="2" spans="1:19">
+      <c r="C2" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="119" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19">
       <c r="A3" s="85"/>
       <c r="C3" s="84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="G3" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="80" t="s">
+      <c r="H3" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="121"/>
+      <c r="J3" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="K3" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="83" t="s">
+      <c r="L3" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="82" t="s">
+      <c r="N3" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="N3" s="80" t="s">
-        <v>111</v>
-      </c>
       <c r="O3" s="79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q3" s="74"/>
       <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1">
       <c r="B4" s="78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I4" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K4" s="75">
         <f>'[4]Ingredients costs'!K22</f>
@@ -33119,7 +32055,7 @@
       <c r="Q4" s="74"/>
       <c r="R4" s="74"/>
     </row>
-    <row r="5" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="8.25" customHeight="1">
       <c r="A5" s="73"/>
       <c r="B5" s="73"/>
       <c r="C5" s="45"/>
@@ -33136,12 +32072,12 @@
       <c r="N5" s="49"/>
       <c r="O5" s="49"/>
     </row>
-    <row r="6" spans="1:19" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="112" t="s">
-        <v>107</v>
+    <row r="6" spans="1:19" s="72" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="117" t="s">
+        <v>106</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -33166,15 +32102,15 @@
         <v>45.158987755102039</v>
       </c>
       <c r="Q6" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R6" s="53"/>
       <c r="S6" s="52"/>
     </row>
-    <row r="7" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112"/>
+    <row r="7" spans="1:19" ht="11.25" customHeight="1">
+      <c r="A7" s="117"/>
       <c r="B7" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="51">
         <v>1</v>
@@ -33210,10 +32146,10 @@
       <c r="Q7" s="71"/>
       <c r="R7" s="71"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A8" s="112"/>
+    <row r="8" spans="1:19">
+      <c r="A8" s="117"/>
       <c r="B8" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="51">
         <v>1</v>
@@ -33249,10 +32185,10 @@
       <c r="Q8" s="71"/>
       <c r="R8" s="71"/>
     </row>
-    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="112"/>
+    <row r="9" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A9" s="117"/>
       <c r="B9" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -33277,15 +32213,15 @@
         <v>31.764520634920633</v>
       </c>
       <c r="Q9" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R9" s="53"/>
       <c r="S9" s="52"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A10" s="112"/>
+    <row r="10" spans="1:19">
+      <c r="A10" s="117"/>
       <c r="B10" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="51">
         <v>1</v>
@@ -33319,10 +32255,10 @@
         <v>24.76851156462585</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A11" s="112"/>
+    <row r="11" spans="1:19">
+      <c r="A11" s="117"/>
       <c r="B11" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="51">
         <v>1</v>
@@ -33356,10 +32292,10 @@
         <v>6.9960090702947832</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="112"/>
+    <row r="12" spans="1:19" ht="29.25" customHeight="1">
+      <c r="A12" s="117"/>
       <c r="B12" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="47">
         <v>1</v>
@@ -33393,13 +32329,13 @@
         <v>654.55999999999995</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A13" s="112"/>
+    <row r="13" spans="1:19">
+      <c r="A13" s="117"/>
       <c r="B13" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="47">
         <v>2</v>
@@ -33433,10 +32369,10 @@
         <v>69.203219954648517</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A14" s="112"/>
+    <row r="14" spans="1:19">
+      <c r="A14" s="117"/>
       <c r="B14" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="47">
         <v>0</v>
@@ -33470,14 +32406,14 @@
         <v>0</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R14" s="67"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A15" s="112"/>
+    <row r="15" spans="1:19">
+      <c r="A15" s="117"/>
       <c r="B15" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="47">
         <v>1</v>
@@ -33511,14 +32447,14 @@
         <v>220</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R15" s="67"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A16" s="112"/>
+    <row r="16" spans="1:19">
+      <c r="A16" s="117"/>
       <c r="B16" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="47">
         <v>1</v>
@@ -33552,14 +32488,14 @@
         <v>265.92721995464854</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R16" s="67"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" s="112"/>
+    <row r="17" spans="1:19">
+      <c r="A17" s="117"/>
       <c r="B17" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="47">
         <v>1</v>
@@ -33594,10 +32530,10 @@
       </c>
       <c r="R17" s="66"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18" s="113"/>
+    <row r="18" spans="1:19">
+      <c r="A18" s="118"/>
       <c r="B18" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -33622,10 +32558,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="6.75" customHeight="1">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="60"/>
@@ -33642,12 +32578,12 @@
       <c r="N19" s="58"/>
       <c r="O19" s="49"/>
     </row>
-    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="114" t="s">
-        <v>104</v>
+    <row r="20" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A20" s="119" t="s">
+        <v>103</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -33672,15 +32608,15 @@
         <v>69.927499319727886</v>
       </c>
       <c r="Q20" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R20" s="53"/>
       <c r="S20" s="52"/>
     </row>
-    <row r="21" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="114"/>
+    <row r="21" spans="1:19" ht="11.25" customHeight="1">
+      <c r="A21" s="119"/>
       <c r="B21" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="51">
         <v>1</v>
@@ -33714,10 +32650,10 @@
         <v>20.390476190476189</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="114"/>
+    <row r="22" spans="1:19" ht="11.25" customHeight="1">
+      <c r="A22" s="119"/>
       <c r="B22" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="51">
         <v>1</v>
@@ -33751,10 +32687,10 @@
         <v>49.5370231292517</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="114"/>
+    <row r="23" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A23" s="119"/>
       <c r="B23" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -33779,15 +32715,15 @@
         <v>63.529041269841265</v>
       </c>
       <c r="Q23" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R23" s="53"/>
       <c r="S23" s="52"/>
     </row>
-    <row r="24" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="114"/>
+    <row r="24" spans="1:19" ht="11.25" customHeight="1">
+      <c r="A24" s="119"/>
       <c r="B24" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="51">
         <v>1</v>
@@ -33821,10 +32757,10 @@
         <v>49.5370231292517</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="114"/>
+    <row r="25" spans="1:19" ht="11.25" customHeight="1">
+      <c r="A25" s="119"/>
       <c r="B25" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="51">
         <v>1</v>
@@ -33858,10 +32794,10 @@
         <v>13.992018140589566</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="114"/>
+    <row r="26" spans="1:19" ht="24" customHeight="1">
+      <c r="A26" s="119"/>
       <c r="B26" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="47">
         <v>1</v>
@@ -33895,13 +32831,13 @@
         <v>981.83999999999992</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="114"/>
+    <row r="27" spans="1:19">
+      <c r="A27" s="119"/>
       <c r="B27" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="47">
         <v>2</v>
@@ -33935,10 +32871,10 @@
         <v>103.80482993197278</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="114"/>
+    <row r="28" spans="1:19">
+      <c r="A28" s="119"/>
       <c r="B28" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="47">
         <v>1</v>
@@ -33972,13 +32908,13 @@
         <v>100</v>
       </c>
       <c r="Q28" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="114"/>
+    <row r="29" spans="1:19">
+      <c r="A29" s="119"/>
       <c r="B29" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="47">
         <v>1</v>
@@ -34012,13 +32948,13 @@
         <v>220</v>
       </c>
       <c r="Q29" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="114"/>
+    <row r="30" spans="1:19">
+      <c r="A30" s="119"/>
       <c r="B30" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="47">
         <v>1</v>
@@ -34052,13 +32988,13 @@
         <v>531.85443990929707</v>
       </c>
       <c r="Q30" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" s="114"/>
+    <row r="31" spans="1:19">
+      <c r="A31" s="119"/>
       <c r="B31" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="47">
         <v>1</v>
@@ -34092,22 +33028,22 @@
         <v>67.346439909297047</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="36" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A32" s="114"/>
+    <row r="32" spans="1:19" s="36" customFormat="1" ht="33">
+      <c r="A32" s="119"/>
       <c r="B32" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" s="39"/>
       <c r="J32" s="30"/>
@@ -34119,10 +33055,10 @@
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A33" s="114"/>
+    <row r="33" spans="1:18">
+      <c r="A33" s="119"/>
       <c r="B33" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="34"/>
@@ -34147,30 +33083,30 @@
         <v>0</v>
       </c>
       <c r="Q33" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18">
       <c r="R34" s="29"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18">
       <c r="B35" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="27"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18">
       <c r="B36" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="26"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18">
       <c r="B37" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J37" s="88">
         <f>SUM(J6,J12:J13,J15:J17)</f>
@@ -34185,12 +33121,12 @@
         <v>1288.5226476190478</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18">
       <c r="B38" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J38" s="88">
         <f>SUM(J9,J12:J13,J15:J17)</f>
@@ -34205,9 +33141,9 @@
         <v>1275.1281804988662</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18">
       <c r="I39" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J39" s="88">
         <f>SUM(J20,J26:J31)</f>
@@ -34222,9 +33158,9 @@
         <v>2074.7732090702948</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18">
       <c r="I40" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J40" s="88">
         <f>SUM(J23,J26:J31)</f>
@@ -34239,10 +33175,10 @@
         <v>2068.374751020408</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18">
       <c r="J42" s="24"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18">
       <c r="J45" s="23"/>
     </row>
   </sheetData>

--- a/t2dm-poltava/t2dm_poltava_progbook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_progbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3750C2D2-CEE5-1041-920A-6B4F073C3AB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072DB216-B228-6F49-9FA4-B85E8841CE83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25340" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25340" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <definedName name="table_ScenarioOffset">[1]Lists!$D$3:$E$5</definedName>
     <definedName name="TB_incidence_rate">'[1]Infection control'!$E$25</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="150">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -679,12 +679,6 @@
     <t>Annual co-payments for insulin</t>
   </si>
   <si>
-    <t>Provision of glucometer strips (oral treatment)</t>
-  </si>
-  <si>
-    <t>Provision of glucometer strips (insulin)</t>
-  </si>
-  <si>
     <t>Clinical exam at diagnosis</t>
   </si>
   <si>
@@ -718,15 +712,6 @@
     <t>SPEC</t>
   </si>
   <si>
-    <t>Monitoring, evaluation, and other costs</t>
-  </si>
-  <si>
-    <t>Monitoring and evaluation</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Estimated total population (Poltava) in 2015</t>
   </si>
   <si>
@@ -752,6 +737,12 @@
   </si>
   <si>
     <t>Number screened positive in 2016</t>
+  </si>
+  <si>
+    <t>insulin+oral</t>
+  </si>
+  <si>
+    <t>Annual insulin spend</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1060,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1338,7 +1329,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1350,6 +1340,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1374,8 +1366,31 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -24866,7 +24881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -25875,8 +25890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -26537,7 +26552,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="7">
         <f>H38*H41</f>
-        <v>351439.19999999995</v>
+        <v>370112.39999999997</v>
       </c>
       <c r="I37" s="6"/>
     </row>
@@ -26610,8 +26625,8 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6">
-        <f>ROUND('#ignore - misc calcs'!$B$4*95%*25%,0)</f>
-        <v>734</v>
+        <f>ROUND('#ignore - misc calcs'!$B$4*25%,0)</f>
+        <v>773</v>
       </c>
       <c r="I41" s="6"/>
     </row>
@@ -26659,7 +26674,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="7">
         <f>H45*H48</f>
-        <v>813462.84</v>
+        <v>856315.55999999994</v>
       </c>
       <c r="I44" s="6"/>
     </row>
@@ -26732,8 +26747,8 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6">
-        <f>ROUND('#ignore - misc calcs'!$B$4*95%*75%,0)</f>
-        <v>2202</v>
+        <f>ROUND('#ignore - misc calcs'!$B$4*75%,0)</f>
+        <v>2318</v>
       </c>
       <c r="I48" s="6"/>
     </row>
@@ -29457,7 +29472,7 @@
         <v>3650.88</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F1" s="110">
         <f>B1*92%</f>
@@ -29548,7 +29563,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="125">
+      <c r="B12" s="116">
         <v>6.85</v>
       </c>
       <c r="C12" t="s">
@@ -29556,7 +29571,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="125">
+      <c r="B13" s="116">
         <f>B12</f>
         <v>6.85</v>
       </c>
@@ -29565,7 +29580,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="125">
+      <c r="B14" s="116">
         <v>8</v>
       </c>
       <c r="C14" t="s">
@@ -29609,7 +29624,7 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="126">
+      <c r="B19" s="117">
         <v>13733</v>
       </c>
       <c r="C19" t="s">
@@ -29643,10 +29658,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7089B648-EE74-8145-9F25-536CEBA19B8C}">
-  <dimension ref="A2:L62"/>
+  <dimension ref="A2:L59"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A28" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29659,8 +29674,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="64">
-      <c r="A2" s="112" t="s">
-        <v>140</v>
+      <c r="A2" s="111" t="s">
+        <v>138</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>28</v>
@@ -29674,21 +29689,21 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="99"/>
       <c r="D3" s="99"/>
-      <c r="E3" s="100">
+      <c r="E3" s="129">
         <f>SUM(E4:E6)</f>
         <v>789502.80000000016</v>
       </c>
       <c r="F3" s="101">
         <f>SUM(F4:F6)</f>
-        <v>1.9003691902116909E-3</v>
+        <v>4.7976961347891501E-3</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J3" s="13">
         <v>460000000</v>
@@ -29706,17 +29721,17 @@
         <f>E4/C4</f>
         <v>30424.000000000004</v>
       </c>
-      <c r="E4" s="92">
+      <c r="E4" s="130">
         <f>'Spending data'!$H$2</f>
         <v>526335.20000000007</v>
       </c>
       <c r="F4" s="97">
         <f>E4/$E$32</f>
-        <v>1.2669127934744606E-3</v>
+        <v>3.1984640898594335E-3</v>
       </c>
       <c r="G4" s="19"/>
       <c r="I4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J4">
         <v>28.0291</v>
@@ -29734,17 +29749,17 @@
         <f>E5/C5</f>
         <v>11409</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="130">
         <f>'Spending data'!$H$9</f>
         <v>197375.7</v>
       </c>
       <c r="F5" s="97">
         <f>E5/$E$32</f>
-        <v>4.7509229755292271E-4</v>
+        <v>1.1994240336972873E-3</v>
       </c>
       <c r="G5" s="19"/>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J5" s="13">
         <f>J3*J4</f>
@@ -29763,17 +29778,17 @@
         <f>E6/C6</f>
         <v>3803.0000000000005</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="130">
         <f>'Spending data'!$H$16</f>
         <v>65791.900000000009</v>
       </c>
       <c r="F6" s="97">
         <f>E6/$E$32</f>
-        <v>1.5836409918430758E-4</v>
+        <v>3.9980801123242919E-4</v>
       </c>
       <c r="G6" s="19"/>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J6" s="13">
         <v>1438948</v>
@@ -29781,22 +29796,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="102"/>
       <c r="D7" s="103"/>
-      <c r="E7" s="100">
+      <c r="E7" s="129">
         <f>SUM(E8:E8)</f>
         <v>334400</v>
       </c>
       <c r="F7" s="101">
         <f>SUM(F8:F8)</f>
-        <v>8.0491602715885159E-4</v>
+        <v>2.0321012002408245E-3</v>
       </c>
       <c r="G7" s="19"/>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J7" s="13">
         <v>44657704</v>
@@ -29814,19 +29829,19 @@
         <f>E8/C8</f>
         <v>3344</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="130">
         <f>'Spending data'!$H$23</f>
         <v>334400</v>
       </c>
       <c r="F8" s="97">
         <f>E8/$E$32</f>
-        <v>8.0491602715885159E-4</v>
+        <v>2.0321012002408245E-3</v>
       </c>
       <c r="G8" s="19"/>
       <c r="I8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="113">
+        <v>140</v>
+      </c>
+      <c r="J8" s="112">
         <f>J6/J7</f>
         <v>3.2221719235722465E-2</v>
       </c>
@@ -29838,17 +29853,17 @@
       <c r="B9" s="98"/>
       <c r="C9" s="102"/>
       <c r="D9" s="103"/>
-      <c r="E9" s="100">
+      <c r="E9" s="129">
         <f>SUM(E10:E13)</f>
-        <v>2914808.5779519277</v>
+        <v>2925606.3841233561</v>
       </c>
       <c r="F9" s="101">
         <f>SUM(F10:F13)</f>
-        <v>7.0160769751603088E-3</v>
+        <v>1.7778493554453618E-2</v>
       </c>
       <c r="G9" s="19"/>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J9" s="110">
         <f>J8*J5</f>
@@ -29857,7 +29872,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="90">
         <v>327.27999999999997</v>
@@ -29866,17 +29881,17 @@
         <f>'#ignore - misc calcs'!$B$4</f>
         <v>3090</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="130">
         <f>C10*D10</f>
         <v>1011295.2</v>
       </c>
       <c r="F10" s="97">
-        <f t="shared" ref="F10:F28" si="0">E10/$E$32</f>
-        <v>2.434233596497656E-3</v>
+        <f>E10/$E$32</f>
+        <v>6.145496978821126E-3</v>
       </c>
       <c r="G10" s="19"/>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J10" s="110">
         <f>J9/J4</f>
@@ -29894,13 +29909,13 @@
         <f>'#ignore - misc calcs'!$B$4</f>
         <v>3090</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="130">
         <f>C11*D11</f>
         <v>1699500</v>
       </c>
       <c r="F11" s="97">
-        <f t="shared" si="0"/>
-        <v>4.0907738880277163E-3</v>
+        <f>E11/$E$32</f>
+        <v>1.0327619586750242E-2</v>
       </c>
       <c r="G11" s="19"/>
     </row>
@@ -29913,15 +29928,15 @@
       </c>
       <c r="D12" s="93">
         <f>'Spending data'!$H$41</f>
-        <v>734</v>
-      </c>
-      <c r="E12" s="92">
+        <v>773</v>
+      </c>
+      <c r="E12" s="130">
         <f>C12*D12</f>
-        <v>111217.34706213151</v>
+        <v>117126.71563900226</v>
       </c>
       <c r="F12" s="97">
-        <f t="shared" si="0"/>
-        <v>2.6770521874520953E-4</v>
+        <f>E12/$E$32</f>
+        <v>7.1176237867907367E-4</v>
       </c>
       <c r="G12" s="19"/>
     </row>
@@ -29934,32 +29949,32 @@
       </c>
       <c r="D13" s="93">
         <f>'Spending data'!$H$48</f>
-        <v>2202</v>
-      </c>
-      <c r="E13" s="92">
+        <v>2318</v>
+      </c>
+      <c r="E13" s="130">
         <f>C13*D13</f>
-        <v>92796.030889795918</v>
+        <v>97684.46848435374</v>
       </c>
       <c r="F13" s="97">
-        <f t="shared" si="0"/>
-        <v>2.2336427188972667E-4</v>
+        <f>E13/$E$32</f>
+        <v>5.9361461020317652E-4</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" s="98"/>
       <c r="C14" s="102"/>
       <c r="D14" s="103"/>
-      <c r="E14" s="104">
+      <c r="E14" s="131">
         <f>SUM(E15:E19)</f>
-        <v>335868432.98575366</v>
+        <v>160454367.577005</v>
       </c>
       <c r="F14" s="105">
-        <f t="shared" si="0"/>
-        <v>0.80845061222177572</v>
+        <f>E14/$E$32</f>
+        <v>0.97505835208467184</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -29971,96 +29986,70 @@
         <v>902.5</v>
       </c>
       <c r="D15" s="93">
-        <f>27998*60/70+12046*1/3</f>
-        <v>28013.619047619046</v>
-      </c>
-      <c r="E15" s="92">
+        <f>$H$22+$H$24</f>
+        <v>31066.666666666668</v>
+      </c>
+      <c r="E15" s="130">
         <f>C15*D15</f>
-        <v>25282291.19047619</v>
+        <v>28037666.666666668</v>
       </c>
       <c r="F15" s="97">
-        <f t="shared" si="0"/>
-        <v>6.085562614387359E-2</v>
+        <f>E15/$E$32</f>
+        <v>0.17038090934594943</v>
       </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C16" s="90">
         <v>9382.44</v>
       </c>
       <c r="D16" s="93">
-        <v>12046</v>
-      </c>
-      <c r="E16" s="92">
+        <f>$H$23+$H$24</f>
+        <v>8600</v>
+      </c>
+      <c r="E16" s="130">
         <f>C16*D16</f>
-        <v>113020872.24000001</v>
+        <v>80688984</v>
       </c>
       <c r="F16" s="97">
-        <f t="shared" si="0"/>
-        <v>0.2720463859732325</v>
+        <f>E16/$E$32</f>
+        <v>0.49033547019321971</v>
       </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="90">
-        <v>1800</v>
-      </c>
-      <c r="D17" s="93">
-        <f>27998*60/70</f>
-        <v>23998.285714285714</v>
-      </c>
-      <c r="E17" s="92">
-        <f>C17*D17</f>
-        <v>43196914.285714284</v>
-      </c>
-      <c r="F17" s="97">
-        <f t="shared" si="0"/>
-        <v>0.10397693969012733</v>
-      </c>
+      <c r="C17" s="90"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="90">
-        <v>8352</v>
-      </c>
-      <c r="D18" s="93">
-        <v>12046</v>
-      </c>
-      <c r="E18" s="92">
-        <f>C18*D18</f>
-        <v>100608192</v>
-      </c>
-      <c r="F18" s="97">
-        <f t="shared" si="0"/>
-        <v>0.24216849941469784</v>
-      </c>
+      <c r="C18" s="90"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="97"/>
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="94">
         <f>SUM(D20:D25)</f>
-        <v>40043</v>
-      </c>
-      <c r="E19" s="92">
+        <v>40000</v>
+      </c>
+      <c r="E19" s="130">
         <f>SUM(E20:E25)</f>
-        <v>53760163.269563198</v>
+        <v>51727716.910338327</v>
       </c>
       <c r="F19" s="97">
-        <f t="shared" si="0"/>
-        <v>0.12940316099984459</v>
+        <f>E19/$E$32</f>
+        <v>0.31434197254550272</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -30072,16 +30061,16 @@
         <v>644.2613238095239</v>
       </c>
       <c r="D20" s="96">
-        <f>8565*10/70</f>
-        <v>1223.5714285714287</v>
-      </c>
-      <c r="E20" s="95">
-        <f t="shared" ref="E20:E25" si="1">C20*D20</f>
-        <v>788299.74834693898</v>
+        <f>30%*$H$21</f>
+        <v>960</v>
+      </c>
+      <c r="E20" s="132">
+        <f t="shared" ref="E20:E25" si="0">C20*D20</f>
+        <v>618490.87085714296</v>
       </c>
       <c r="F20" s="97">
-        <f t="shared" si="0"/>
-        <v>1.8974733901008991E-3</v>
+        <f>E20/$E$32</f>
+        <v>3.7584809838719885E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -30093,31 +30082,31 @@
         <v>744.2613238095239</v>
       </c>
       <c r="D21" s="96">
-        <f>19433*10/70</f>
-        <v>2776.1428571428573</v>
-      </c>
-      <c r="E21" s="95">
-        <f t="shared" si="1"/>
-        <v>2066175.757941497</v>
+        <f>70%*$H$21</f>
+        <v>2240</v>
+      </c>
+      <c r="E21" s="132">
+        <f t="shared" si="0"/>
+        <v>1667145.3653333336</v>
       </c>
       <c r="F21" s="97">
-        <f t="shared" si="0"/>
-        <v>4.9733791342529872E-3</v>
+        <f>E21/$E$32</f>
+        <v>1.0131005077361827E-2</v>
       </c>
       <c r="H21" s="93">
-        <f>27998*10/70</f>
-        <v>3999.7142857142858</v>
+        <f>8%*40000</f>
+        <v>3200</v>
       </c>
       <c r="I21" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" s="111">
-        <f>H21/$H$24</f>
-        <v>9.988298585841289E-2</v>
+        <v>135</v>
+      </c>
+      <c r="J21" s="128">
+        <f>H21/$H$25</f>
+        <v>0.08</v>
       </c>
       <c r="L21">
         <f>72%*H24</f>
-        <v>28831.68</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -30129,27 +30118,27 @@
         <v>673.94638458049894</v>
       </c>
       <c r="D22" s="96">
-        <f>8565*60/70</f>
-        <v>7341.4285714285716</v>
-      </c>
-      <c r="E22" s="95">
-        <f t="shared" si="1"/>
-        <v>4947729.2433702629</v>
+        <f>30%*$H$22</f>
+        <v>8460</v>
+      </c>
+      <c r="E22" s="132">
+        <f t="shared" si="0"/>
+        <v>5701586.4135510214</v>
       </c>
       <c r="F22" s="97">
-        <f t="shared" si="0"/>
-        <v>1.1909409587414063E-2</v>
+        <f>E22/$E$32</f>
+        <v>3.464772904980206E-2</v>
       </c>
       <c r="H22" s="93">
-        <f>27998*60/70</f>
-        <v>23998.285714285714</v>
+        <f>40000-H21-H23-H24</f>
+        <v>28200</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="111">
-        <f>H22/$H$24</f>
-        <v>0.59929791515047737</v>
+        <v>137</v>
+      </c>
+      <c r="J22" s="128">
+        <f t="shared" ref="J22:J24" si="1">H22/$H$25</f>
+        <v>0.70499999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -30161,27 +30150,27 @@
         <v>1390.7116653061225</v>
       </c>
       <c r="D23" s="96">
-        <f>19433*60/70</f>
-        <v>16656.857142857141</v>
-      </c>
-      <c r="E23" s="95">
+        <f>70%*$H$22</f>
+        <v>19740</v>
+      </c>
+      <c r="E23" s="132">
+        <f t="shared" si="0"/>
+        <v>27452648.273142859</v>
+      </c>
+      <c r="F23" s="97">
+        <f>E23/$E$32</f>
+        <v>0.16682583584223326</v>
+      </c>
+      <c r="H23" s="94">
+        <f>8600*2/3</f>
+        <v>5733.333333333333</v>
+      </c>
+      <c r="I23" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="128">
         <f t="shared" si="1"/>
-        <v>23164885.535909038</v>
-      </c>
-      <c r="F23" s="97">
-        <f t="shared" si="0"/>
-        <v>5.5758934315650259E-2</v>
-      </c>
-      <c r="H23" s="94">
-        <f>D16</f>
-        <v>12046</v>
-      </c>
-      <c r="I23" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="111">
-        <f>H23/$H$24</f>
-        <v>0.30081909899110976</v>
+        <v>0.14333333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -30193,19 +30182,27 @@
         <v>1288.5226476190478</v>
       </c>
       <c r="D24" s="96">
-        <v>2795</v>
-      </c>
-      <c r="E24" s="95">
+        <f>23%*SUM($H$23:$H$24)</f>
+        <v>1978</v>
+      </c>
+      <c r="E24" s="132">
+        <f t="shared" si="0"/>
+        <v>2548697.7969904765</v>
+      </c>
+      <c r="F24" s="97">
+        <f>E24/$E$32</f>
+        <v>1.5488073721039152E-2</v>
+      </c>
+      <c r="H24" s="94">
+        <f>8600*1/3</f>
+        <v>2866.6666666666665</v>
+      </c>
+      <c r="I24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="128">
         <f t="shared" si="1"/>
-        <v>3601420.8000952387</v>
-      </c>
-      <c r="F24" s="97">
-        <f t="shared" si="0"/>
-        <v>8.6687838592700728E-3</v>
-      </c>
-      <c r="H24" s="94">
-        <f>SUM(H21:H23)</f>
-        <v>40044</v>
+        <v>7.1666666666666656E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -30217,31 +30214,36 @@
         <v>2074.7732090702948</v>
       </c>
       <c r="D25" s="96">
-        <v>9250</v>
-      </c>
-      <c r="E25" s="95">
-        <f t="shared" si="1"/>
-        <v>19191652.183900226</v>
+        <f>(1-23%)*SUM($H$23:$H$24)</f>
+        <v>6622</v>
+      </c>
+      <c r="E25" s="132">
+        <f t="shared" si="0"/>
+        <v>13739148.190463493</v>
       </c>
       <c r="F25" s="97">
-        <f t="shared" si="0"/>
-        <v>4.61951807131563E-2</v>
+        <f>E25/$E$32</f>
+        <v>8.3490847871194415E-2</v>
+      </c>
+      <c r="H25" s="94">
+        <f>SUM(H21:H24)</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" s="106"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
-      <c r="E26" s="109">
+      <c r="E26" s="133">
         <f>SUM(E27:E28)</f>
         <v>54856.81</v>
       </c>
       <c r="F26" s="105">
-        <f t="shared" si="0"/>
-        <v>1.3204283961665059E-4</v>
+        <f>E26/$E$32</f>
+        <v>3.3335702584444632E-4</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -30255,15 +30257,19 @@
         <f>E27/C27</f>
         <v>2338.9589851151177</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="130">
         <f>'Spending data'!$H$51</f>
         <v>37868.410000000003</v>
       </c>
       <c r="F27" s="97">
-        <f t="shared" si="0"/>
-        <v>9.1150987236909484E-5</v>
+        <f>E27/$E$32</f>
+        <v>2.3012093723747502E-4</v>
       </c>
       <c r="G27" s="19"/>
+      <c r="H27" s="12">
+        <f>873/SUM(873,1980)</f>
+        <v>0.305993690851735</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="B28" t="s">
@@ -30276,75 +30282,56 @@
         <f>E28/C28</f>
         <v>1170.1768974901722</v>
       </c>
-      <c r="E28" s="92">
+      <c r="E28" s="130">
         <f>'Spending data'!$H$58</f>
         <v>16988.399999999998</v>
       </c>
       <c r="F28" s="97">
-        <f t="shared" si="0"/>
-        <v>4.0891852379741129E-5</v>
+        <f>E28/$E$32</f>
+        <v>1.0323608860697134E-4</v>
       </c>
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="98" t="s">
-        <v>141</v>
-      </c>
+      <c r="A29" s="98"/>
       <c r="B29" s="106"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
-      <c r="E29" s="109">
-        <f>SUM(E30:E31)</f>
-        <v>75485062.516089171</v>
-      </c>
-      <c r="F29" s="105">
-        <f t="shared" ref="F29:F31" si="2">E29/$E$32</f>
-        <v>0.18169598274607668</v>
-      </c>
+      <c r="E29" s="109"/>
+      <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="B30" t="s">
-        <v>142</v>
-      </c>
       <c r="C30" s="90"/>
       <c r="D30" s="93"/>
-      <c r="E30" s="92">
-        <f>20%*SUM(E3,E7,E9,E14,E26)</f>
-        <v>67992400.234741122</v>
-      </c>
-      <c r="F30" s="97">
-        <f t="shared" si="2"/>
-        <v>0.16366080345078465</v>
-      </c>
+      <c r="E30" s="92"/>
+      <c r="F30" s="97"/>
       <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="B31" t="s">
-        <v>143</v>
-      </c>
       <c r="C31" s="90"/>
       <c r="D31" s="93"/>
-      <c r="E31" s="92">
-        <f>J9-SUM(E3,E7,E9,E14,E26,E30)</f>
-        <v>7492662.2813480496</v>
-      </c>
-      <c r="F31" s="97">
-        <f t="shared" si="2"/>
-        <v>1.8035179295292015E-2</v>
-      </c>
+      <c r="E31" s="92"/>
+      <c r="F31" s="97"/>
       <c r="G31" s="19"/>
+      <c r="H31" s="12">
+        <f>D24/SUM(D24:D25)</f>
+        <v>0.23</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="B32" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="116">
+      <c r="B32" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="127">
         <f>SUMIFS(E3:E31,A3:A31,"&lt;&gt;")</f>
-        <v>415447063.68979478</v>
-      </c>
-      <c r="F32" s="94"/>
+        <v>164558733.57112837</v>
+      </c>
+      <c r="F32" s="126">
+        <f>SUMIFS(F3:F31,A3:A31,"&lt;&gt;")</f>
+        <v>0.99999999999999989</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="E33" s="94"/>
@@ -30355,8 +30342,8 @@
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" ht="64">
-      <c r="A35" s="112" t="s">
-        <v>140</v>
+      <c r="A35" s="111" t="s">
+        <v>138</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>28</v>
@@ -30370,7 +30357,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B36" s="98"/>
       <c r="C36" s="99"/>
@@ -30384,7 +30371,7 @@
       </c>
       <c r="F36" s="101">
         <f>SUM(F37:F39)</f>
-        <v>1.9003691902116909E-3</v>
+        <v>4.8477619763277755E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -30404,8 +30391,8 @@
         <v>526335.20000000007</v>
       </c>
       <c r="F37" s="97">
-        <f>E37/$E$32</f>
-        <v>1.2669127934744606E-3</v>
+        <f>E37/$E$59</f>
+        <v>3.2318413175518503E-3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -30425,8 +30412,8 @@
         <v>197375.7</v>
       </c>
       <c r="F38" s="97">
-        <f>E38/$E$32</f>
-        <v>4.7509229755292271E-4</v>
+        <f>E38/$E$59</f>
+        <v>1.2119404940819439E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -30446,13 +30433,13 @@
         <v>65791.900000000009</v>
       </c>
       <c r="F39" s="97">
-        <f>E39/$E$32</f>
-        <v>1.5836409918430758E-4</v>
+        <f>E39/$E$59</f>
+        <v>4.0398016469398129E-4</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B40" s="98"/>
       <c r="C40" s="102"/>
@@ -30466,7 +30453,7 @@
       </c>
       <c r="F40" s="101">
         <f>SUM(F41:F41)</f>
-        <v>8.0491602715885159E-4</v>
+        <v>2.0533069735585588E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -30486,8 +30473,8 @@
         <v>334400</v>
       </c>
       <c r="F41" s="97">
-        <f>E41/$E$32</f>
-        <v>8.0491602715885159E-4</v>
+        <f>E41/$E$59</f>
+        <v>2.0533069735585588E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -30502,16 +30489,16 @@
       </c>
       <c r="E42" s="100">
         <f>SUM(E43:E45)</f>
-        <v>1215308.5779519274</v>
+        <v>1226106.3841233558</v>
       </c>
       <c r="F42" s="101">
         <f>SUM(F43:F45)</f>
-        <v>2.9253030871325921E-3</v>
+        <v>7.5286267609005848E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" s="90">
         <v>327.27999999999997</v>
@@ -30525,8 +30512,8 @@
         <v>1011295.2</v>
       </c>
       <c r="F43" s="97">
-        <f t="shared" ref="F43:F61" si="3">E43/$E$32</f>
-        <v>2.434233596497656E-3</v>
+        <f t="shared" ref="F43:F45" si="2">E43/$E$59</f>
+        <v>6.2096276509757686E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -30538,15 +30525,15 @@
       </c>
       <c r="D44" s="93">
         <f>'Spending data'!$H$41</f>
-        <v>734</v>
+        <v>773</v>
       </c>
       <c r="E44" s="92">
         <f>C44*D44</f>
-        <v>111217.34706213151</v>
+        <v>117126.71563900226</v>
       </c>
       <c r="F44" s="97">
-        <f t="shared" si="3"/>
-        <v>2.6770521874520953E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.1918989835996895E-4</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -30558,34 +30545,34 @@
       </c>
       <c r="D45" s="93">
         <f>'Spending data'!$H$48</f>
-        <v>2202</v>
+        <v>2318</v>
       </c>
       <c r="E45" s="92">
         <f>C45*D45</f>
-        <v>92796.030889795918</v>
+        <v>97684.46848435374</v>
       </c>
       <c r="F45" s="97">
-        <f t="shared" si="3"/>
-        <v>2.2336427188972667E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.9980921156484678E-4</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B46" s="98"/>
       <c r="C46" s="102"/>
       <c r="D46" s="103">
         <f>D49</f>
-        <v>40043</v>
+        <v>40000</v>
       </c>
       <c r="E46" s="104">
         <f>SUM(E47:E49)</f>
-        <v>192063326.70003939</v>
+        <v>160454367.577005</v>
       </c>
       <c r="F46" s="105">
-        <f t="shared" si="3"/>
-        <v>0.46230517311695063</v>
+        <f>SUM(F47:F49)</f>
+        <v>0.98523346855201144</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -30596,16 +30583,16 @@
         <v>902.5</v>
       </c>
       <c r="D47" s="93">
-        <f>27998*60/70+12046*1/3</f>
-        <v>28013.619047619046</v>
+        <f>$H$22+$H$24</f>
+        <v>31066.666666666668</v>
       </c>
       <c r="E47" s="92">
         <f>C47*D47</f>
-        <v>25282291.19047619</v>
+        <v>28037666.666666668</v>
       </c>
       <c r="F47" s="97">
-        <f t="shared" si="3"/>
-        <v>6.085562614387359E-2</v>
+        <f t="shared" ref="F47:F55" si="3">E47/$E$59</f>
+        <v>0.17215890098378295</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -30616,36 +30603,37 @@
         <v>9382.44</v>
       </c>
       <c r="D48" s="93">
-        <v>12046</v>
+        <f>$H$23+$H$24</f>
+        <v>8600</v>
       </c>
       <c r="E48" s="92">
         <f>C48*D48</f>
-        <v>113020872.24000001</v>
+        <v>80688984</v>
       </c>
       <c r="F48" s="97">
         <f t="shared" si="3"/>
-        <v>0.2720463859732325</v>
+        <v>0.49545231320740118</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="90"/>
       <c r="D49" s="94">
         <f>SUM(D50:D55)</f>
-        <v>40043</v>
+        <v>40000</v>
       </c>
       <c r="E49" s="92">
         <f>SUM(E50:E55)</f>
-        <v>53760163.269563198</v>
+        <v>51727716.910338327</v>
       </c>
       <c r="F49" s="97">
         <f t="shared" si="3"/>
-        <v>0.12940316099984459</v>
+        <v>0.31762225436082736</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8">
       <c r="B50" s="89" t="s">
         <v>117</v>
       </c>
@@ -30654,19 +30642,19 @@
         <v>644.2613238095239</v>
       </c>
       <c r="D50" s="96">
-        <f>8565*10/70</f>
-        <v>1223.5714285714287</v>
+        <f>30%*$H$21</f>
+        <v>960</v>
       </c>
       <c r="E50" s="95">
         <f t="shared" ref="E50:E55" si="4">C50*D50</f>
-        <v>788299.74834693898</v>
+        <v>618490.87085714296</v>
       </c>
       <c r="F50" s="97">
         <f t="shared" si="3"/>
-        <v>1.8974733901008991E-3</v>
+        <v>3.7977022075755909E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8">
       <c r="B51" s="89" t="s">
         <v>118</v>
       </c>
@@ -30675,19 +30663,19 @@
         <v>744.2613238095239</v>
       </c>
       <c r="D51" s="96">
-        <f>19433*10/70</f>
-        <v>2776.1428571428573</v>
+        <f>70%*$H$21</f>
+        <v>2240</v>
       </c>
       <c r="E51" s="95">
         <f t="shared" si="4"/>
-        <v>2066175.757941497</v>
+        <v>1667145.3653333336</v>
       </c>
       <c r="F51" s="97">
         <f t="shared" si="3"/>
-        <v>4.9733791342529872E-3</v>
+        <v>1.0236726090235541E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:8">
       <c r="B52" s="89" t="s">
         <v>119</v>
       </c>
@@ -30696,19 +30684,19 @@
         <v>673.94638458049894</v>
       </c>
       <c r="D52" s="96">
-        <f>8565*60/70</f>
-        <v>7341.4285714285716</v>
+        <f>30%*$H$22</f>
+        <v>8460</v>
       </c>
       <c r="E52" s="95">
         <f t="shared" si="4"/>
-        <v>4947729.2433702629</v>
+        <v>5701586.4135510214</v>
       </c>
       <c r="F52" s="97">
         <f t="shared" si="3"/>
-        <v>1.1909409587414063E-2</v>
+        <v>3.5009291696444511E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:8">
       <c r="B53" s="89" t="s">
         <v>120</v>
       </c>
@@ -30717,19 +30705,23 @@
         <v>1390.7116653061225</v>
       </c>
       <c r="D53" s="96">
-        <f>19433*60/70</f>
-        <v>16656.857142857141</v>
+        <f>70%*$H$22</f>
+        <v>19740</v>
       </c>
       <c r="E53" s="95">
         <f t="shared" si="4"/>
-        <v>23164885.535909038</v>
+        <v>27452648.273142859</v>
       </c>
       <c r="F53" s="97">
         <f t="shared" si="3"/>
-        <v>5.5758934315650259E-2</v>
+        <v>0.16856672889322535</v>
+      </c>
+      <c r="H53" s="94">
+        <f>E46-E48</f>
+        <v>79765383.577004999</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8">
       <c r="B54" s="89" t="s">
         <v>121</v>
       </c>
@@ -30738,18 +30730,19 @@
         <v>1288.5226476190478</v>
       </c>
       <c r="D54" s="96">
-        <v>2795</v>
+        <f>23%*SUM($H$23:$H$24)</f>
+        <v>1978</v>
       </c>
       <c r="E54" s="95">
         <f t="shared" si="4"/>
-        <v>3601420.8000952387</v>
+        <v>2548697.7969904765</v>
       </c>
       <c r="F54" s="97">
         <f t="shared" si="3"/>
-        <v>8.6687838592700728E-3</v>
+        <v>1.5649697847051079E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8">
       <c r="B55" s="89" t="s">
         <v>122</v>
       </c>
@@ -30758,20 +30751,21 @@
         <v>2074.7732090702948</v>
       </c>
       <c r="D55" s="96">
-        <v>9250</v>
+        <f>(1-23%)*SUM($H$23:$H$24)</f>
+        <v>6622</v>
       </c>
       <c r="E55" s="95">
         <f t="shared" si="4"/>
-        <v>19191652.183900226</v>
+        <v>13739148.190463493</v>
       </c>
       <c r="F55" s="97">
         <f t="shared" si="3"/>
-        <v>4.61951807131563E-2</v>
+        <v>8.4362107626295285E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8">
       <c r="A56" s="98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B56" s="106"/>
       <c r="C56" s="107"/>
@@ -30781,11 +30775,11 @@
         <v>54856.81</v>
       </c>
       <c r="F56" s="105">
-        <f t="shared" si="3"/>
-        <v>1.3204283961665059E-4</v>
+        <f t="shared" ref="F56" si="5">E56/$E$32</f>
+        <v>3.3335702584444632E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:8">
       <c r="B57" t="s">
         <v>70</v>
       </c>
@@ -30801,11 +30795,11 @@
         <v>37868.410000000003</v>
       </c>
       <c r="F57" s="97">
-        <f t="shared" si="3"/>
-        <v>9.1150987236909484E-5</v>
+        <f t="shared" ref="F57:F58" si="6">E57/$E$59</f>
+        <v>2.3252233950530701E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:8">
       <c r="B58" t="s">
         <v>71</v>
       </c>
@@ -30821,67 +30815,24 @@
         <v>16988.399999999998</v>
       </c>
       <c r="F58" s="97">
-        <f t="shared" si="3"/>
-        <v>4.0891852379741129E-5</v>
+        <f t="shared" si="6"/>
+        <v>1.0431339769617886E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="106"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="109">
-        <f>SUM(E60:E61)</f>
-        <v>220989668.80180341</v>
-      </c>
-      <c r="F59" s="105">
-        <f t="shared" si="3"/>
-        <v>0.53193219573892947</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="B60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="90"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="92">
-        <f>20%*SUM(E36,E40,E42,E46,E56)</f>
-        <v>38891478.977598265</v>
-      </c>
-      <c r="F60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.3613560852214089E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="B61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="90"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="92">
-        <f>J9-SUM(E36,E40,E42,E46,E56,E60)</f>
-        <v>182098189.82420516</v>
-      </c>
-      <c r="F61" s="97">
-        <f t="shared" si="3"/>
-        <v>0.43831863488671541</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="B62" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="116">
-        <f>SUMIFS(E36:E61,A36:A61,"&lt;&gt;")</f>
-        <v>415447063.68979472</v>
-      </c>
-      <c r="F62" s="94"/>
+    <row r="59" spans="1:8">
+      <c r="B59" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="115">
+        <f>SUMIFS(E36:E58,A36:A58,"&lt;&gt;")</f>
+        <v>162859233.57112837</v>
+      </c>
+      <c r="F59" s="134">
+        <f>SUMIFS(F36:F58,A36:A58,"&lt;&gt;")</f>
+        <v>0.9999965212886428</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31926,50 +31877,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="121" t="s">
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
       <c r="Q1" s="87"/>
       <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="123" t="s">
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="124" t="s">
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="85"/>
@@ -31991,7 +31942,7 @@
       <c r="H3" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="121"/>
+      <c r="I3" s="122"/>
       <c r="J3" s="84" t="s">
         <v>111</v>
       </c>
@@ -32073,7 +32024,7 @@
       <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:19" s="72" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="118" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="57" t="s">
@@ -32108,7 +32059,7 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="33" t="s">
         <v>100</v>
       </c>
@@ -32147,7 +32098,7 @@
       <c r="R7" s="71"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="117"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="33" t="s">
         <v>99</v>
       </c>
@@ -32186,7 +32137,7 @@
       <c r="R8" s="71"/>
     </row>
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A9" s="117"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="55" t="s">
         <v>98</v>
       </c>
@@ -32219,7 +32170,7 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="117"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="33" t="s">
         <v>96</v>
       </c>
@@ -32256,7 +32207,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="117"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="33" t="s">
         <v>95</v>
       </c>
@@ -32293,7 +32244,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A12" s="117"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="33" t="s">
         <v>94</v>
       </c>
@@ -32333,7 +32284,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="117"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="33" t="s">
         <v>92</v>
       </c>
@@ -32370,7 +32321,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="117"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="48" t="s">
         <v>91</v>
       </c>
@@ -32411,7 +32362,7 @@
       <c r="R14" s="67"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="117"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="33" t="s">
         <v>89</v>
       </c>
@@ -32452,7 +32403,7 @@
       <c r="R15" s="67"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="117"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="33" t="s">
         <v>87</v>
       </c>
@@ -32493,7 +32444,7 @@
       <c r="R16" s="67"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="117"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="48" t="s">
         <v>85</v>
       </c>
@@ -32531,7 +32482,7 @@
       <c r="R17" s="66"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="118"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="33" t="s">
         <v>80</v>
       </c>
@@ -32579,7 +32530,7 @@
       <c r="O19" s="49"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="120" t="s">
         <v>103</v>
       </c>
       <c r="B20" s="57" t="s">
@@ -32614,7 +32565,7 @@
       <c r="S20" s="52"/>
     </row>
     <row r="21" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A21" s="119"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="33" t="s">
         <v>100</v>
       </c>
@@ -32651,7 +32602,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A22" s="119"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="33" t="s">
         <v>99</v>
       </c>
@@ -32688,7 +32639,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A23" s="119"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="55" t="s">
         <v>98</v>
       </c>
@@ -32721,7 +32672,7 @@
       <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A24" s="119"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="33" t="s">
         <v>96</v>
       </c>
@@ -32758,7 +32709,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A25" s="119"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="33" t="s">
         <v>95</v>
       </c>
@@ -32795,7 +32746,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="24" customHeight="1">
-      <c r="A26" s="119"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="33" t="s">
         <v>94</v>
       </c>
@@ -32835,7 +32786,7 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="119"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="33" t="s">
         <v>92</v>
       </c>
@@ -32872,7 +32823,7 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="119"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="48" t="s">
         <v>91</v>
       </c>
@@ -32912,7 +32863,7 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="119"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="33" t="s">
         <v>89</v>
       </c>
@@ -32952,7 +32903,7 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="119"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="33" t="s">
         <v>87</v>
       </c>
@@ -32992,7 +32943,7 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="119"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="48" t="s">
         <v>85</v>
       </c>
@@ -33029,7 +32980,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="36" customFormat="1" ht="33">
-      <c r="A32" s="119"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="43" t="s">
         <v>84</v>
       </c>
@@ -33056,7 +33007,7 @@
       <c r="R32" s="37"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="119"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="33" t="s">
         <v>80</v>
       </c>
